--- a/PRIORIZAR.xlsx
+++ b/PRIORIZAR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://timbrasil-my.sharepoint.com/personal/tblacerda_timbrasil_com_br/Documents/__Automacao_de_tarefas/HACK@TIM_2024/__ENTREGAVEIS_GRUPO_XX_DANTIMZIG__/PYTHON/MAR2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://timbrasil-my.sharepoint.com/personal/tblacerda_timbrasil_com_br/Documents/__Automacao_de_tarefas/HACK@TIM_2024/__ENTREGAVEIS_GRUPO_XX_DANTIMZIG__/PYTHON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="11_F25DC773A252ABDACC104865295C53F25ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BE68B75-42B9-4DB4-A73A-628111DD59BE}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="11_F25DC773A252ABDACC104865295C53F25ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67D3B416-514D-43F8-A142-B00D629D8E32}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$S$476</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$T$476</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="40">
   <si>
     <t>COMERCIAL</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>OC</t>
+  </si>
+  <si>
+    <t>regional</t>
+  </si>
+  <si>
+    <t>TNE_1</t>
+  </si>
+  <si>
+    <t>TNE_2</t>
   </si>
 </sst>
 </file>
@@ -264,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -287,13 +296,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,6 +385,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S476"/>
+  <dimension ref="A1:T476"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:S1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,9 +698,10 @@
     <col min="16" max="17" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -735,8 +759,11 @@
       <c r="S1" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T1" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -785,7 +812,7 @@
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>16</v>
       </c>
@@ -833,7 +860,7 @@
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>17</v>
       </c>
@@ -881,7 +908,7 @@
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
@@ -929,7 +956,7 @@
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>712094</v>
       </c>
@@ -984,8 +1011,11 @@
       <c r="S6" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>990716</v>
       </c>
@@ -1040,8 +1070,11 @@
       <c r="S7" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>1054430</v>
       </c>
@@ -1096,8 +1129,11 @@
       <c r="S8" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>994794</v>
       </c>
@@ -1152,8 +1188,11 @@
       <c r="S9" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>990736</v>
       </c>
@@ -1208,8 +1247,11 @@
       <c r="S10" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>795621</v>
       </c>
@@ -1264,8 +1306,11 @@
       <c r="S11" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>795622</v>
       </c>
@@ -1320,8 +1365,11 @@
       <c r="S12" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>793702</v>
       </c>
@@ -1376,8 +1424,11 @@
       <c r="S13" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>990692</v>
       </c>
@@ -1432,8 +1483,11 @@
       <c r="S14" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>793717</v>
       </c>
@@ -1488,8 +1542,11 @@
       <c r="S15" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>904492</v>
       </c>
@@ -1544,8 +1601,11 @@
       <c r="S16" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>904372</v>
       </c>
@@ -1600,8 +1660,11 @@
       <c r="S17" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>439976</v>
       </c>
@@ -1656,8 +1719,11 @@
       <c r="S18" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>674540</v>
       </c>
@@ -1712,8 +1778,11 @@
       <c r="S19" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>998613</v>
       </c>
@@ -1768,8 +1837,11 @@
       <c r="S20" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>793650</v>
       </c>
@@ -1824,8 +1896,11 @@
       <c r="S21" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>990714</v>
       </c>
@@ -1880,8 +1955,11 @@
       <c r="S22" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>674550</v>
       </c>
@@ -1936,8 +2014,11 @@
       <c r="S23" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>712059</v>
       </c>
@@ -1992,8 +2073,11 @@
       <c r="S24" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>712060</v>
       </c>
@@ -2048,8 +2132,11 @@
       <c r="S25" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>712057</v>
       </c>
@@ -2104,8 +2191,11 @@
       <c r="S26" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>712063</v>
       </c>
@@ -2160,8 +2250,11 @@
       <c r="S27" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>712068</v>
       </c>
@@ -2216,8 +2309,11 @@
       <c r="S28" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>712084</v>
       </c>
@@ -2272,8 +2368,11 @@
       <c r="S29" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>904371</v>
       </c>
@@ -2328,8 +2427,11 @@
       <c r="S30" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>1054021</v>
       </c>
@@ -2384,8 +2486,11 @@
       <c r="S31" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>1054046</v>
       </c>
@@ -2440,8 +2545,11 @@
       <c r="S32" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>1054022</v>
       </c>
@@ -2496,8 +2604,11 @@
       <c r="S33" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T33" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>1102003</v>
       </c>
@@ -2552,8 +2663,11 @@
       <c r="S34" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T34" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>1091530</v>
       </c>
@@ -2608,8 +2722,11 @@
       <c r="S35" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>1091531</v>
       </c>
@@ -2664,8 +2781,11 @@
       <c r="S36" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>1091532</v>
       </c>
@@ -2720,8 +2840,11 @@
       <c r="S37" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T37" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>1054804</v>
       </c>
@@ -2776,8 +2899,11 @@
       <c r="S38" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T38" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>1054019</v>
       </c>
@@ -2832,8 +2958,11 @@
       <c r="S39" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>929747</v>
       </c>
@@ -2888,8 +3017,11 @@
       <c r="S40" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T40" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>658488</v>
       </c>
@@ -2944,8 +3076,11 @@
       <c r="S41" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T41" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>1054020</v>
       </c>
@@ -3000,8 +3135,11 @@
       <c r="S42" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T42" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>1086584</v>
       </c>
@@ -3056,8 +3194,11 @@
       <c r="S43" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T43" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>1073375</v>
       </c>
@@ -3112,8 +3253,11 @@
       <c r="S44" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>994793</v>
       </c>
@@ -3168,8 +3312,11 @@
       <c r="S45" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T45" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>994795</v>
       </c>
@@ -3224,8 +3371,11 @@
       <c r="S46" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T46" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>939438</v>
       </c>
@@ -3280,8 +3430,11 @@
       <c r="S47" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T47" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>1023887</v>
       </c>
@@ -3336,8 +3489,11 @@
       <c r="S48" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T48" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>935593</v>
       </c>
@@ -3392,8 +3548,11 @@
       <c r="S49" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T49" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <v>778479</v>
       </c>
@@ -3448,8 +3607,11 @@
       <c r="S50" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T50" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>1023885</v>
       </c>
@@ -3504,8 +3666,11 @@
       <c r="S51" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T51" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <v>1129710</v>
       </c>
@@ -3560,8 +3725,11 @@
       <c r="S52" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T52" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>1129698</v>
       </c>
@@ -3616,8 +3784,11 @@
       <c r="S53" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T53" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <v>824651</v>
       </c>
@@ -3672,8 +3843,11 @@
       <c r="S54" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T54" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>924174</v>
       </c>
@@ -3728,8 +3902,11 @@
       <c r="S55" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T55" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <v>1061545</v>
       </c>
@@ -3784,8 +3961,11 @@
       <c r="S56" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T56" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
         <v>1061544</v>
       </c>
@@ -3840,8 +4020,11 @@
       <c r="S57" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T57" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>1061578</v>
       </c>
@@ -3896,8 +4079,11 @@
       <c r="S58" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T58" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
         <v>1054194</v>
       </c>
@@ -3952,8 +4138,11 @@
       <c r="S59" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T59" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="22">
         <v>1061576</v>
       </c>
@@ -4008,8 +4197,11 @@
       <c r="S60" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T60" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="22">
         <v>1054262</v>
       </c>
@@ -4064,8 +4256,11 @@
       <c r="S61" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T61" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="22">
         <v>1133694</v>
       </c>
@@ -4120,8 +4315,11 @@
       <c r="S62" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T62" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="22">
         <v>1061641</v>
       </c>
@@ -4176,8 +4374,11 @@
       <c r="S63" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T63" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
         <v>1061562</v>
       </c>
@@ -4232,8 +4433,11 @@
       <c r="S64" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T64" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="22">
         <v>923815</v>
       </c>
@@ -4288,8 +4492,11 @@
       <c r="S65" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T65" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="22">
         <v>962398</v>
       </c>
@@ -4344,8 +4551,11 @@
       <c r="S66" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T66" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="22">
         <v>1106155</v>
       </c>
@@ -4400,8 +4610,11 @@
       <c r="S67" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T67" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="22">
         <v>1106158</v>
       </c>
@@ -4456,8 +4669,11 @@
       <c r="S68" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T68" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="22">
         <v>1023907</v>
       </c>
@@ -4512,8 +4728,11 @@
       <c r="S69" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T69" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="22">
         <v>1023896</v>
       </c>
@@ -4568,8 +4787,11 @@
       <c r="S70" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T70" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="22">
         <v>1106161</v>
       </c>
@@ -4624,8 +4846,11 @@
       <c r="S71" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T71" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="22">
         <v>924409</v>
       </c>
@@ -4680,8 +4905,11 @@
       <c r="S72" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T72" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="22">
         <v>1023895</v>
       </c>
@@ -4736,8 +4964,11 @@
       <c r="S73" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T73" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="22">
         <v>1023891</v>
       </c>
@@ -4792,8 +5023,11 @@
       <c r="S74" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T74" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="22">
         <v>1106156</v>
       </c>
@@ -4848,8 +5082,11 @@
       <c r="S75" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T75" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="22">
         <v>961815</v>
       </c>
@@ -4904,8 +5141,11 @@
       <c r="S76" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T76" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="22">
         <v>961816</v>
       </c>
@@ -4960,8 +5200,11 @@
       <c r="S77" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T77" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="22">
         <v>924467</v>
       </c>
@@ -5016,8 +5259,11 @@
       <c r="S78" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T78" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="22">
         <v>1106159</v>
       </c>
@@ -5072,8 +5318,11 @@
       <c r="S79" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T79" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="22">
         <v>1023899</v>
       </c>
@@ -5128,8 +5377,11 @@
       <c r="S80" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T80" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="22">
         <v>924228</v>
       </c>
@@ -5184,8 +5436,11 @@
       <c r="S81" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T81" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="22">
         <v>924227</v>
       </c>
@@ -5240,8 +5495,11 @@
       <c r="S82" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T82" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="22">
         <v>1023893</v>
       </c>
@@ -5296,8 +5554,11 @@
       <c r="S83" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T83" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="22">
         <v>1023884</v>
       </c>
@@ -5352,8 +5613,11 @@
       <c r="S84" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T84" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="22">
         <v>924524</v>
       </c>
@@ -5408,8 +5672,11 @@
       <c r="S85" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T85" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="22">
         <v>1122544</v>
       </c>
@@ -5464,8 +5731,11 @@
       <c r="S86" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T86" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="22">
         <v>1106175</v>
       </c>
@@ -5520,8 +5790,11 @@
       <c r="S87" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T87" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="22">
         <v>1044124</v>
       </c>
@@ -5576,8 +5849,11 @@
       <c r="S88" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T88" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="22">
         <v>1044082</v>
       </c>
@@ -5632,8 +5908,11 @@
       <c r="S89" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T89" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="22">
         <v>825393</v>
       </c>
@@ -5688,8 +5967,11 @@
       <c r="S90" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T90" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="22">
         <v>1106166</v>
       </c>
@@ -5744,8 +6026,11 @@
       <c r="S91" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T91" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="22">
         <v>1106174</v>
       </c>
@@ -5800,8 +6085,11 @@
       <c r="S92" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T92" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="22">
         <v>1106157</v>
       </c>
@@ -5856,8 +6144,11 @@
       <c r="S93" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T93" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="22">
         <v>1106163</v>
       </c>
@@ -5912,8 +6203,11 @@
       <c r="S94" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T94" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="22">
         <v>1106162</v>
       </c>
@@ -5968,8 +6262,11 @@
       <c r="S95" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T95" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="22">
         <v>1107456</v>
       </c>
@@ -6024,8 +6321,11 @@
       <c r="S96" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T96" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="22">
         <v>1107446</v>
       </c>
@@ -6080,8 +6380,11 @@
       <c r="S97" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T97" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="22">
         <v>1107450</v>
       </c>
@@ -6136,8 +6439,11 @@
       <c r="S98" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T98" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="22">
         <v>1107453</v>
       </c>
@@ -6192,8 +6498,11 @@
       <c r="S99" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T99" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="22">
         <v>1107451</v>
       </c>
@@ -6248,8 +6557,11 @@
       <c r="S100" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T100" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="22">
         <v>1107452</v>
       </c>
@@ -6304,8 +6616,11 @@
       <c r="S101" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T101" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="22">
         <v>1106180</v>
       </c>
@@ -6360,8 +6675,11 @@
       <c r="S102" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T102" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="22">
         <v>1107447</v>
       </c>
@@ -6416,8 +6734,11 @@
       <c r="S103" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T103" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="22">
         <v>1107455</v>
       </c>
@@ -6472,8 +6793,11 @@
       <c r="S104" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T104" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="22">
         <v>1107454</v>
       </c>
@@ -6528,8 +6852,11 @@
       <c r="S105" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T105" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="22">
         <v>1106181</v>
       </c>
@@ -6584,8 +6911,11 @@
       <c r="S106" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T106" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="22">
         <v>1044120</v>
       </c>
@@ -6640,8 +6970,11 @@
       <c r="S107" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T107" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="22">
         <v>1107442</v>
       </c>
@@ -6696,8 +7029,11 @@
       <c r="S108" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T108" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="22">
         <v>1044127</v>
       </c>
@@ -6752,8 +7088,11 @@
       <c r="S109" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T109" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="22">
         <v>1106150</v>
       </c>
@@ -6808,8 +7147,11 @@
       <c r="S110" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T110" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="22">
         <v>1106151</v>
       </c>
@@ -6864,8 +7206,11 @@
       <c r="S111" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T111" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="22">
         <v>924123</v>
       </c>
@@ -6920,8 +7265,11 @@
       <c r="S112" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T112" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="22">
         <v>825454</v>
       </c>
@@ -6976,8 +7324,11 @@
       <c r="S113" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T113" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="22">
         <v>825451</v>
       </c>
@@ -7032,8 +7383,11 @@
       <c r="S114" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T114" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="22">
         <v>1122550</v>
       </c>
@@ -7088,8 +7442,11 @@
       <c r="S115" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T115" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="22">
         <v>824540</v>
       </c>
@@ -7144,8 +7501,11 @@
       <c r="S116" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T116" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="22">
         <v>1122549</v>
       </c>
@@ -7200,8 +7560,11 @@
       <c r="S117" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T117" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="22">
         <v>924069</v>
       </c>
@@ -7256,8 +7619,11 @@
       <c r="S118" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T118" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="22">
         <v>1023889</v>
       </c>
@@ -7312,8 +7678,11 @@
       <c r="S119" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T119" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="22">
         <v>1107441</v>
       </c>
@@ -7368,8 +7737,11 @@
       <c r="S120" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T120" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="22">
         <v>1106153</v>
       </c>
@@ -7424,8 +7796,11 @@
       <c r="S121" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T121" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="22">
         <v>1107448</v>
       </c>
@@ -7480,8 +7855,11 @@
       <c r="S122" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T122" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="22">
         <v>961899</v>
       </c>
@@ -7536,8 +7914,11 @@
       <c r="S123" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T123" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="22">
         <v>1106215</v>
       </c>
@@ -7592,8 +7973,11 @@
       <c r="S124" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T124" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="22">
         <v>1106179</v>
       </c>
@@ -7648,8 +8032,11 @@
       <c r="S125" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T125" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="22">
         <v>935357</v>
       </c>
@@ -7704,8 +8091,11 @@
       <c r="S126" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T126" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="22">
         <v>1122548</v>
       </c>
@@ -7760,8 +8150,11 @@
       <c r="S127" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T127" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="22">
         <v>1122547</v>
       </c>
@@ -7816,8 +8209,11 @@
       <c r="S128" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T128" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="22">
         <v>1054330</v>
       </c>
@@ -7872,8 +8268,11 @@
       <c r="S129" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T129" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="22">
         <v>1107445</v>
       </c>
@@ -7928,8 +8327,11 @@
       <c r="S130" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T130" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="22">
         <v>1103140</v>
       </c>
@@ -7984,8 +8386,11 @@
       <c r="S131" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T131" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="22">
         <v>1103139</v>
       </c>
@@ -8040,8 +8445,11 @@
       <c r="S132" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T132" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="22">
         <v>1103122</v>
       </c>
@@ -8096,8 +8504,11 @@
       <c r="S133" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T133" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="22">
         <v>1101996</v>
       </c>
@@ -8152,8 +8563,11 @@
       <c r="S134" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T134" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="22">
         <v>1103127</v>
       </c>
@@ -8208,8 +8622,11 @@
       <c r="S135" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T135" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="22">
         <v>1103037</v>
       </c>
@@ -8264,8 +8681,11 @@
       <c r="S136" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T136" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="22">
         <v>1103143</v>
       </c>
@@ -8320,8 +8740,11 @@
       <c r="S137" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T137" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="22">
         <v>1103128</v>
       </c>
@@ -8376,8 +8799,11 @@
       <c r="S138" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T138" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="22">
         <v>1103089</v>
       </c>
@@ -8432,8 +8858,11 @@
       <c r="S139" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T139" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="22">
         <v>1103086</v>
       </c>
@@ -8488,8 +8917,11 @@
       <c r="S140" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T140" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="22">
         <v>1103087</v>
       </c>
@@ -8544,8 +8976,11 @@
       <c r="S141" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T141" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="22">
         <v>1103041</v>
       </c>
@@ -8600,8 +9035,11 @@
       <c r="S142" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T142" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="22">
         <v>1102002</v>
       </c>
@@ -8656,8 +9094,11 @@
       <c r="S143" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T143" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="22">
         <v>1102001</v>
       </c>
@@ -8712,8 +9153,11 @@
       <c r="S144" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T144" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="22">
         <v>1101998</v>
       </c>
@@ -8768,8 +9212,11 @@
       <c r="S145" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T145" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="22">
         <v>1103042</v>
       </c>
@@ -8824,8 +9271,11 @@
       <c r="S146" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T146" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="22">
         <v>1103040</v>
       </c>
@@ -8880,8 +9330,11 @@
       <c r="S147" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T147" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="22">
         <v>1103044</v>
       </c>
@@ -8936,8 +9389,11 @@
       <c r="S148" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T148" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="22">
         <v>1103043</v>
       </c>
@@ -8992,8 +9448,11 @@
       <c r="S149" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T149" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="22">
         <v>1103046</v>
       </c>
@@ -9048,8 +9507,11 @@
       <c r="S150" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T150" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="22">
         <v>1103141</v>
       </c>
@@ -9104,8 +9566,11 @@
       <c r="S151" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T151" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="22">
         <v>1103126</v>
       </c>
@@ -9160,8 +9625,11 @@
       <c r="S152" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T152" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="22">
         <v>1103129</v>
       </c>
@@ -9216,8 +9684,11 @@
       <c r="S153" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T153" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="22">
         <v>1103077</v>
       </c>
@@ -9272,8 +9743,11 @@
       <c r="S154" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T154" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="22">
         <v>1103079</v>
       </c>
@@ -9328,8 +9802,11 @@
       <c r="S155" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T155" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="22">
         <v>1103032</v>
       </c>
@@ -9384,8 +9861,11 @@
       <c r="S156" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T156" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="22">
         <v>1103088</v>
       </c>
@@ -9440,8 +9920,11 @@
       <c r="S157" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T157" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="22">
         <v>1103083</v>
       </c>
@@ -9496,8 +9979,11 @@
       <c r="S158" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T158" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="22">
         <v>1103051</v>
       </c>
@@ -9552,8 +10038,11 @@
       <c r="S159" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T159" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="22">
         <v>1104663</v>
       </c>
@@ -9608,8 +10097,11 @@
       <c r="S160" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T160" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="22">
         <v>1103118</v>
       </c>
@@ -9664,8 +10156,11 @@
       <c r="S161" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T161" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="22">
         <v>1103113</v>
       </c>
@@ -9720,8 +10215,11 @@
       <c r="S162" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T162" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="22">
         <v>1103096</v>
       </c>
@@ -9776,8 +10274,11 @@
       <c r="S163" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T163" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="22">
         <v>1103098</v>
       </c>
@@ -9832,8 +10333,11 @@
       <c r="S164" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T164" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="22">
         <v>1103108</v>
       </c>
@@ -9888,8 +10392,11 @@
       <c r="S165" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T165" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="22">
         <v>1103110</v>
       </c>
@@ -9944,8 +10451,11 @@
       <c r="S166" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T166" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="22">
         <v>1103111</v>
       </c>
@@ -10000,8 +10510,11 @@
       <c r="S167" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T167" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="22">
         <v>1103115</v>
       </c>
@@ -10056,8 +10569,11 @@
       <c r="S168" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T168" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="22">
         <v>1103104</v>
       </c>
@@ -10112,8 +10628,11 @@
       <c r="S169" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T169" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="22">
         <v>1104348</v>
       </c>
@@ -10168,8 +10687,11 @@
       <c r="S170" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T170" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="22">
         <v>1103099</v>
       </c>
@@ -10224,8 +10746,11 @@
       <c r="S171" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T171" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="22">
         <v>1103081</v>
       </c>
@@ -10280,8 +10805,11 @@
       <c r="S172" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T172" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="22">
         <v>1103106</v>
       </c>
@@ -10336,8 +10864,11 @@
       <c r="S173" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T173" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="22">
         <v>1103114</v>
       </c>
@@ -10392,8 +10923,11 @@
       <c r="S174" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T174" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="22">
         <v>1104664</v>
       </c>
@@ -10448,8 +10982,11 @@
       <c r="S175" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T175" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="22">
         <v>1103117</v>
       </c>
@@ -10504,8 +11041,11 @@
       <c r="S176" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T176" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="22">
         <v>1103138</v>
       </c>
@@ -10560,8 +11100,11 @@
       <c r="S177" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T177" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="22">
         <v>1103084</v>
       </c>
@@ -10616,8 +11159,11 @@
       <c r="S178" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T178" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="22">
         <v>1103094</v>
       </c>
@@ -10672,8 +11218,11 @@
       <c r="S179" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T179" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="22">
         <v>1103091</v>
       </c>
@@ -10728,8 +11277,11 @@
       <c r="S180" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T180" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="22">
         <v>1103116</v>
       </c>
@@ -10784,8 +11336,11 @@
       <c r="S181" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T181" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="22">
         <v>1103124</v>
       </c>
@@ -10840,8 +11395,11 @@
       <c r="S182" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T182" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="22">
         <v>1103105</v>
       </c>
@@ -10896,8 +11454,11 @@
       <c r="S183" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T183" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="22">
         <v>1103082</v>
       </c>
@@ -10952,8 +11513,11 @@
       <c r="S184" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T184" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="22">
         <v>1103153</v>
       </c>
@@ -11008,8 +11572,11 @@
       <c r="S185" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T185" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="22">
         <v>1103100</v>
       </c>
@@ -11064,8 +11631,11 @@
       <c r="S186" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T186" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="22">
         <v>1103152</v>
       </c>
@@ -11120,8 +11690,11 @@
       <c r="S187" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T187" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="22">
         <v>1103049</v>
       </c>
@@ -11176,8 +11749,11 @@
       <c r="S188" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T188" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="22">
         <v>1103047</v>
       </c>
@@ -11232,8 +11808,11 @@
       <c r="S189" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T189" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="22">
         <v>1103156</v>
       </c>
@@ -11288,8 +11867,11 @@
       <c r="S190" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T190" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="22">
         <v>1103050</v>
       </c>
@@ -11344,8 +11926,11 @@
       <c r="S191" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T191" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="22">
         <v>1103048</v>
       </c>
@@ -11400,8 +11985,11 @@
       <c r="S192" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T192" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="22">
         <v>1103085</v>
       </c>
@@ -11456,8 +12044,11 @@
       <c r="S193" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T193" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="22">
         <v>1103097</v>
       </c>
@@ -11512,8 +12103,11 @@
       <c r="S194" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T194" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="22">
         <v>1103102</v>
       </c>
@@ -11568,8 +12162,11 @@
       <c r="S195" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T195" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="22">
         <v>1103092</v>
       </c>
@@ -11624,8 +12221,11 @@
       <c r="S196" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T196" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="22">
         <v>1061557</v>
       </c>
@@ -11680,8 +12280,11 @@
       <c r="S197" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T197" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="22">
         <v>1103095</v>
       </c>
@@ -11736,8 +12339,11 @@
       <c r="S198" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T198" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="22">
         <v>1023882</v>
       </c>
@@ -11792,8 +12398,11 @@
       <c r="S199" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T199" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="22">
         <v>1106160</v>
       </c>
@@ -11848,8 +12457,11 @@
       <c r="S200" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T200" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" s="22">
         <v>962128</v>
       </c>
@@ -11904,8 +12516,11 @@
       <c r="S201" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T201" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202" s="22">
         <v>961854</v>
       </c>
@@ -11960,8 +12575,11 @@
       <c r="S202" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T202" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" s="22">
         <v>1061629</v>
       </c>
@@ -12016,8 +12634,11 @@
       <c r="S203" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T203" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" s="22">
         <v>1061616</v>
       </c>
@@ -12072,8 +12693,11 @@
       <c r="S204" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T204" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" s="22">
         <v>1138639</v>
       </c>
@@ -12128,8 +12752,11 @@
       <c r="S205" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T205" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206" s="22">
         <v>1074847</v>
       </c>
@@ -12184,8 +12811,11 @@
       <c r="S206" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T206" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207" s="22">
         <v>1054438</v>
       </c>
@@ -12240,8 +12870,11 @@
       <c r="S207" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T207" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208" s="22">
         <v>1103101</v>
       </c>
@@ -12296,8 +12929,11 @@
       <c r="S208" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T208" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209" s="22">
         <v>1103109</v>
       </c>
@@ -12352,8 +12988,11 @@
       <c r="S209" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T209" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210" s="22">
         <v>1103112</v>
       </c>
@@ -12408,8 +13047,11 @@
       <c r="S210" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T210" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" s="22">
         <v>1138741</v>
       </c>
@@ -12464,8 +13106,11 @@
       <c r="S211" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T211" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" s="22">
         <v>1106172</v>
       </c>
@@ -12520,8 +13165,11 @@
       <c r="S212" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T212" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213" s="22">
         <v>1103080</v>
       </c>
@@ -12576,8 +13224,11 @@
       <c r="S213" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T213" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214" s="22">
         <v>1103107</v>
       </c>
@@ -12632,8 +13283,11 @@
       <c r="S214" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T214" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215" s="22">
         <v>1106167</v>
       </c>
@@ -12688,8 +13342,11 @@
       <c r="S215" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T215" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216" s="22">
         <v>1103103</v>
       </c>
@@ -12744,8 +13401,11 @@
       <c r="S216" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T216" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217" s="22">
         <v>1138625</v>
       </c>
@@ -12800,8 +13460,11 @@
       <c r="S217" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T217" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218" s="22">
         <v>1138636</v>
       </c>
@@ -12856,8 +13519,11 @@
       <c r="S218" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T218" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219" s="22">
         <v>1138644</v>
       </c>
@@ -12912,8 +13578,11 @@
       <c r="S219" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T219" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220" s="22">
         <v>1138629</v>
       </c>
@@ -12968,8 +13637,11 @@
       <c r="S220" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T220" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221" s="22">
         <v>936167</v>
       </c>
@@ -13024,8 +13696,11 @@
       <c r="S221" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T221" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222" s="22">
         <v>936259</v>
       </c>
@@ -13080,8 +13755,11 @@
       <c r="S222" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T222" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223" s="22">
         <v>1107444</v>
       </c>
@@ -13136,8 +13814,11 @@
       <c r="S223" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T223" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224" s="22">
         <v>1138647</v>
       </c>
@@ -13192,8 +13873,11 @@
       <c r="S224" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T224" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225" s="22">
         <v>1054250</v>
       </c>
@@ -13248,8 +13932,11 @@
       <c r="S225" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T225" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226" s="22">
         <v>1054331</v>
       </c>
@@ -13304,8 +13991,11 @@
       <c r="S226" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T226" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227" s="22">
         <v>1103125</v>
       </c>
@@ -13360,8 +14050,11 @@
       <c r="S227" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T227" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228" s="22">
         <v>1106227</v>
       </c>
@@ -13416,8 +14109,11 @@
       <c r="S228" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T228" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229" s="22">
         <v>1103150</v>
       </c>
@@ -13472,8 +14168,11 @@
       <c r="S229" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T229" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A230" s="22">
         <v>961930</v>
       </c>
@@ -13528,8 +14227,11 @@
       <c r="S230" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T230" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231" s="22">
         <v>1103131</v>
       </c>
@@ -13584,8 +14286,11 @@
       <c r="S231" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T231" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A232" s="22">
         <v>924171</v>
       </c>
@@ -13640,8 +14345,11 @@
       <c r="S232" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T232" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A233" s="22">
         <v>1104362</v>
       </c>
@@ -13696,8 +14404,11 @@
       <c r="S233" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T233" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234" s="22">
         <v>1103123</v>
       </c>
@@ -13752,8 +14463,11 @@
       <c r="S234" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T234" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235" s="22">
         <v>1103142</v>
       </c>
@@ -13808,8 +14522,11 @@
       <c r="S235" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T235" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A236" s="22">
         <v>1074843</v>
       </c>
@@ -13864,8 +14581,11 @@
       <c r="S236" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T236" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237" s="22">
         <v>1044101</v>
       </c>
@@ -13920,8 +14640,11 @@
       <c r="S237" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T237" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238" s="22">
         <v>1058197</v>
       </c>
@@ -13976,8 +14699,11 @@
       <c r="S238" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T238" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A239" s="22">
         <v>825180</v>
       </c>
@@ -14032,8 +14758,11 @@
       <c r="S239" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T239" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240" s="22">
         <v>962397</v>
       </c>
@@ -14088,8 +14817,11 @@
       <c r="S240" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T240" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241" s="22">
         <v>924173</v>
       </c>
@@ -14144,8 +14876,11 @@
       <c r="S241" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T241" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242" s="22">
         <v>1103052</v>
       </c>
@@ -14200,8 +14935,11 @@
       <c r="S242" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T242" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243" s="22">
         <v>1103073</v>
       </c>
@@ -14256,8 +14994,11 @@
       <c r="S243" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T243" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244" s="22">
         <v>1054572</v>
       </c>
@@ -14312,8 +15053,11 @@
       <c r="S244" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T244" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245" s="22">
         <v>1054181</v>
       </c>
@@ -14368,8 +15112,11 @@
       <c r="S245" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T245" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246" s="22">
         <v>1074700</v>
       </c>
@@ -14424,8 +15171,11 @@
       <c r="S246" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T246" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247" s="22">
         <v>1074701</v>
       </c>
@@ -14480,8 +15230,11 @@
       <c r="S247" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T247" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248" s="22">
         <v>1061670</v>
       </c>
@@ -14536,8 +15289,11 @@
       <c r="S248" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T248" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249" s="22">
         <v>1138635</v>
       </c>
@@ -14592,8 +15348,11 @@
       <c r="S249" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T249" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250" s="22">
         <v>1138627</v>
       </c>
@@ -14648,8 +15407,11 @@
       <c r="S250" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T250" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251" s="22">
         <v>1138645</v>
       </c>
@@ -14704,8 +15466,11 @@
       <c r="S251" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T251" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252" s="22">
         <v>1061960</v>
       </c>
@@ -14760,8 +15525,11 @@
       <c r="S252" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T252" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253" s="22">
         <v>1061628</v>
       </c>
@@ -14816,8 +15584,11 @@
       <c r="S253" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T253" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254" s="22">
         <v>1061537</v>
       </c>
@@ -14872,8 +15643,11 @@
       <c r="S254" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T254" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A255" s="22">
         <v>1061538</v>
       </c>
@@ -14928,8 +15702,11 @@
       <c r="S255" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T255" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256" s="22">
         <v>1074685</v>
       </c>
@@ -14984,8 +15761,11 @@
       <c r="S256" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T256" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257" s="22">
         <v>1061669</v>
       </c>
@@ -15040,8 +15820,11 @@
       <c r="S257" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T257" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258" s="22">
         <v>1061559</v>
       </c>
@@ -15096,8 +15879,11 @@
       <c r="S258" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T258" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A259" s="22">
         <v>962012</v>
       </c>
@@ -15152,8 +15938,11 @@
       <c r="S259" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T259" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260" s="22">
         <v>962044</v>
       </c>
@@ -15208,8 +15997,11 @@
       <c r="S260" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T260" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261" s="22">
         <v>962091</v>
       </c>
@@ -15264,8 +16056,11 @@
       <c r="S261" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T261" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262" s="22">
         <v>1000756</v>
       </c>
@@ -15320,8 +16115,11 @@
       <c r="S262" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T262" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A263" s="22">
         <v>1000768</v>
       </c>
@@ -15376,8 +16174,11 @@
       <c r="S263" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T263" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264" s="22">
         <v>1000762</v>
       </c>
@@ -15432,8 +16233,11 @@
       <c r="S264" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T264" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265" s="22">
         <v>1000763</v>
       </c>
@@ -15488,8 +16292,11 @@
       <c r="S265" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T265" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266" s="22">
         <v>1000766</v>
       </c>
@@ -15544,8 +16351,11 @@
       <c r="S266" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T266" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267" s="22">
         <v>1000765</v>
       </c>
@@ -15600,8 +16410,11 @@
       <c r="S267" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T267" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268" s="22">
         <v>1000764</v>
       </c>
@@ -15656,8 +16469,11 @@
       <c r="S268" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T268" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269" s="22">
         <v>1000760</v>
       </c>
@@ -15712,8 +16528,11 @@
       <c r="S269" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T269" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A270" s="22">
         <v>986247</v>
       </c>
@@ -15768,8 +16587,11 @@
       <c r="S270" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T270" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271" s="22">
         <v>1061575</v>
       </c>
@@ -15824,8 +16646,11 @@
       <c r="S271" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T271" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A272" s="22">
         <v>1061565</v>
       </c>
@@ -15880,8 +16705,11 @@
       <c r="S272" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T272" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A273" s="22">
         <v>1061574</v>
       </c>
@@ -15936,8 +16764,11 @@
       <c r="S273" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T273" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A274" s="22">
         <v>1054193</v>
       </c>
@@ -15992,8 +16823,11 @@
       <c r="S274" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T274" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A275" s="22">
         <v>1061577</v>
       </c>
@@ -16048,8 +16882,11 @@
       <c r="S275" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T275" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A276" s="22">
         <v>1074709</v>
       </c>
@@ -16104,8 +16941,11 @@
       <c r="S276" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T276" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A277" s="22">
         <v>1074681</v>
       </c>
@@ -16160,8 +17000,11 @@
       <c r="S277" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T277" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A278" s="22">
         <v>1074687</v>
       </c>
@@ -16216,8 +17059,11 @@
       <c r="S278" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T278" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A279" s="22">
         <v>1054070</v>
       </c>
@@ -16272,8 +17118,11 @@
       <c r="S279" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T279" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A280" s="22">
         <v>675449</v>
       </c>
@@ -16328,8 +17177,11 @@
       <c r="S280" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T280" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281" s="22">
         <v>1074699</v>
       </c>
@@ -16384,8 +17236,11 @@
       <c r="S281" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T281" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282" s="22">
         <v>1074698</v>
       </c>
@@ -16440,8 +17295,11 @@
       <c r="S282" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T282" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A283" s="22">
         <v>1074723</v>
       </c>
@@ -16496,8 +17354,11 @@
       <c r="S283" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T283" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A284" s="22">
         <v>1054084</v>
       </c>
@@ -16552,8 +17413,11 @@
       <c r="S284" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T284" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A285" s="22">
         <v>1054089</v>
       </c>
@@ -16608,8 +17472,11 @@
       <c r="S285" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T285" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A286" s="22">
         <v>984144</v>
       </c>
@@ -16664,8 +17531,11 @@
       <c r="S286" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T286" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A287" s="22">
         <v>1000767</v>
       </c>
@@ -16720,8 +17590,11 @@
       <c r="S287" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T287" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A288" s="22">
         <v>1000759</v>
       </c>
@@ -16776,8 +17649,11 @@
       <c r="S288" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T288" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A289" s="22">
         <v>1000755</v>
       </c>
@@ -16832,8 +17708,11 @@
       <c r="S289" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T289" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A290" s="22">
         <v>1000761</v>
       </c>
@@ -16888,8 +17767,11 @@
       <c r="S290" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T290" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A291" s="22">
         <v>955149</v>
       </c>
@@ -16944,8 +17826,11 @@
       <c r="S291" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T291" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A292" s="22">
         <v>1054087</v>
       </c>
@@ -17000,8 +17885,11 @@
       <c r="S292" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T292" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A293" s="22">
         <v>1061536</v>
       </c>
@@ -17056,8 +17944,11 @@
       <c r="S293" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T293" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294" s="22">
         <v>1074851</v>
       </c>
@@ -17112,8 +18003,11 @@
       <c r="S294" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T294" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A295" s="22">
         <v>1074850</v>
       </c>
@@ -17168,8 +18062,11 @@
       <c r="S295" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T295" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A296" s="22">
         <v>1074697</v>
       </c>
@@ -17224,8 +18121,11 @@
       <c r="S296" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T296" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A297" s="22">
         <v>1074704</v>
       </c>
@@ -17280,8 +18180,11 @@
       <c r="S297" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T297" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A298" s="22">
         <v>1074903</v>
       </c>
@@ -17336,8 +18239,11 @@
       <c r="S298" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T298" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A299" s="22">
         <v>1074906</v>
       </c>
@@ -17392,8 +18298,11 @@
       <c r="S299" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T299" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A300" s="22">
         <v>1074905</v>
       </c>
@@ -17448,8 +18357,11 @@
       <c r="S300" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T300" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301" s="22">
         <v>691948</v>
       </c>
@@ -17504,8 +18416,11 @@
       <c r="S301" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T301" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A302" s="22">
         <v>1074725</v>
       </c>
@@ -17560,8 +18475,11 @@
       <c r="S302" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T302" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A303" s="22">
         <v>936090</v>
       </c>
@@ -17616,8 +18534,11 @@
       <c r="S303" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T303" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A304" s="22">
         <v>1074724</v>
       </c>
@@ -17672,8 +18593,11 @@
       <c r="S304" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T304" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A305" s="22">
         <v>1061952</v>
       </c>
@@ -17728,8 +18652,11 @@
       <c r="S305" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T305" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A306" s="22">
         <v>936081</v>
       </c>
@@ -17784,8 +18711,11 @@
       <c r="S306" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T306" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A307" s="22">
         <v>1061601</v>
       </c>
@@ -17840,8 +18770,11 @@
       <c r="S307" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T307" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A308" s="22">
         <v>1061627</v>
       </c>
@@ -17896,8 +18829,11 @@
       <c r="S308" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T308" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A309" s="22">
         <v>1061600</v>
       </c>
@@ -17952,8 +18888,11 @@
       <c r="S309" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T309" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A310" s="22">
         <v>1054097</v>
       </c>
@@ -18008,8 +18947,11 @@
       <c r="S310" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T310" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A311" s="22">
         <v>1054263</v>
       </c>
@@ -18064,8 +19006,11 @@
       <c r="S311" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T311" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A312" s="22">
         <v>1061631</v>
       </c>
@@ -18120,8 +19065,11 @@
       <c r="S312" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T312" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A313" s="22">
         <v>1074683</v>
       </c>
@@ -18176,8 +19124,11 @@
       <c r="S313" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T313" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A314" s="22">
         <v>1054284</v>
       </c>
@@ -18232,8 +19183,11 @@
       <c r="S314" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T314" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A315" s="22">
         <v>1061671</v>
       </c>
@@ -18288,8 +19242,11 @@
       <c r="S315" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T315" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A316" s="22">
         <v>1044118</v>
       </c>
@@ -18344,8 +19301,11 @@
       <c r="S316" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T316" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A317" s="22">
         <v>1044116</v>
       </c>
@@ -18400,8 +19360,11 @@
       <c r="S317" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T317" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A318" s="22">
         <v>1044115</v>
       </c>
@@ -18456,8 +19419,11 @@
       <c r="S318" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T318" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A319" s="22">
         <v>1061738</v>
       </c>
@@ -18512,8 +19478,11 @@
       <c r="S319" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T319" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A320" s="22">
         <v>1054240</v>
       </c>
@@ -18568,8 +19537,11 @@
       <c r="S320" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T320" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321" s="22">
         <v>1061561</v>
       </c>
@@ -18624,8 +19596,11 @@
       <c r="S321" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T321" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A322" s="22">
         <v>1061643</v>
       </c>
@@ -18680,8 +19655,11 @@
       <c r="S322" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T322" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A323" s="22">
         <v>1061630</v>
       </c>
@@ -18736,8 +19714,11 @@
       <c r="S323" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T323" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A324" s="22">
         <v>923765</v>
       </c>
@@ -18792,8 +19773,11 @@
       <c r="S324" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T324" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A325" s="22">
         <v>1054243</v>
       </c>
@@ -18848,8 +19832,11 @@
       <c r="S325" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T325" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A326" s="22">
         <v>1054075</v>
       </c>
@@ -18904,8 +19891,11 @@
       <c r="S326" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T326" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A327" s="22">
         <v>1054100</v>
       </c>
@@ -18960,8 +19950,11 @@
       <c r="S327" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T327" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A328" s="22">
         <v>1054577</v>
       </c>
@@ -19016,8 +20009,11 @@
       <c r="S328" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T328" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A329" s="22">
         <v>1054245</v>
       </c>
@@ -19072,8 +20068,11 @@
       <c r="S329" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T329" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A330" s="22">
         <v>1054083</v>
       </c>
@@ -19128,8 +20127,11 @@
       <c r="S330" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T330" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A331" s="22">
         <v>1054098</v>
       </c>
@@ -19184,8 +20186,11 @@
       <c r="S331" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T331" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A332" s="22">
         <v>1054094</v>
       </c>
@@ -19240,8 +20245,11 @@
       <c r="S332" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T332" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A333" s="22">
         <v>825577</v>
       </c>
@@ -19296,8 +20304,11 @@
       <c r="S333" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T333" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A334" s="22">
         <v>1074845</v>
       </c>
@@ -19352,8 +20363,11 @@
       <c r="S334" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T334" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A335" s="22">
         <v>936168</v>
       </c>
@@ -19408,8 +20422,11 @@
       <c r="S335" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T335" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A336" s="22">
         <v>936166</v>
       </c>
@@ -19464,8 +20481,11 @@
       <c r="S336" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T336" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A337" s="22">
         <v>1044103</v>
       </c>
@@ -19520,8 +20540,11 @@
       <c r="S337" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T337" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A338" s="22">
         <v>1044155</v>
       </c>
@@ -19576,8 +20599,11 @@
       <c r="S338" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T338" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A339" s="22">
         <v>825047</v>
       </c>
@@ -19632,8 +20658,11 @@
       <c r="S339" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T339" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A340" s="22">
         <v>936245</v>
       </c>
@@ -19688,8 +20717,11 @@
       <c r="S340" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T340" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A341" s="22">
         <v>1054232</v>
       </c>
@@ -19744,8 +20776,11 @@
       <c r="S341" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T341" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A342" s="22">
         <v>936075</v>
       </c>
@@ -19800,8 +20835,11 @@
       <c r="S342" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T342" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A343" s="22">
         <v>1054529</v>
       </c>
@@ -19856,8 +20894,11 @@
       <c r="S343" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T343" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A344" s="22">
         <v>1044134</v>
       </c>
@@ -19912,8 +20953,11 @@
       <c r="S344" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T344" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A345" s="22">
         <v>924175</v>
       </c>
@@ -19968,8 +21012,11 @@
       <c r="S345" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T345" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A346" s="22">
         <v>1044083</v>
       </c>
@@ -20024,8 +21071,11 @@
       <c r="S346" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T346" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A347" s="22">
         <v>1044139</v>
       </c>
@@ -20080,8 +21130,11 @@
       <c r="S347" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T347" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A348" s="22">
         <v>825056</v>
       </c>
@@ -20136,8 +21189,11 @@
       <c r="S348" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T348" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A349" s="22">
         <v>924347</v>
       </c>
@@ -20192,8 +21248,11 @@
       <c r="S349" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T349" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A350" s="22">
         <v>1044091</v>
       </c>
@@ -20248,8 +21307,11 @@
       <c r="S350" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T350" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A351" s="22">
         <v>1023894</v>
       </c>
@@ -20304,8 +21366,11 @@
       <c r="S351" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T351" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A352" s="22">
         <v>1054547</v>
       </c>
@@ -20360,8 +21425,11 @@
       <c r="S352" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T352" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A353" s="22">
         <v>1044119</v>
       </c>
@@ -20416,8 +21484,11 @@
       <c r="S353" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T353" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A354" s="22">
         <v>1044114</v>
       </c>
@@ -20472,8 +21543,11 @@
       <c r="S354" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T354" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A355" s="22">
         <v>1074677</v>
       </c>
@@ -20528,8 +21602,11 @@
       <c r="S355" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T355" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A356" s="22">
         <v>924349</v>
       </c>
@@ -20584,8 +21661,11 @@
       <c r="S356" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T356" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A357" s="22">
         <v>1065481</v>
       </c>
@@ -20640,8 +21720,11 @@
       <c r="S357" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T357" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A358" s="22">
         <v>825059</v>
       </c>
@@ -20696,8 +21779,11 @@
       <c r="S358" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T358" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A359" s="22">
         <v>825123</v>
       </c>
@@ -20752,8 +21838,11 @@
       <c r="S359" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T359" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A360" s="22">
         <v>1074846</v>
       </c>
@@ -20808,8 +21897,11 @@
       <c r="S360" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T360" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A361" s="22">
         <v>894482</v>
       </c>
@@ -20864,8 +21956,11 @@
       <c r="S361" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T361" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A362" s="22">
         <v>825250</v>
       </c>
@@ -20920,8 +22015,11 @@
       <c r="S362" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T362" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A363" s="22">
         <v>924346</v>
       </c>
@@ -20976,8 +22074,11 @@
       <c r="S363" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T363" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A364" s="22">
         <v>1054434</v>
       </c>
@@ -21032,8 +22133,11 @@
       <c r="S364" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T364" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A365" s="22">
         <v>1044144</v>
       </c>
@@ -21088,8 +22192,11 @@
       <c r="S365" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T365" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A366" s="22">
         <v>1023906</v>
       </c>
@@ -21144,8 +22251,11 @@
       <c r="S366" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T366" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A367" s="22">
         <v>1023890</v>
       </c>
@@ -21200,8 +22310,11 @@
       <c r="S367" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T367" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A368" s="22">
         <v>1054546</v>
       </c>
@@ -21256,8 +22369,11 @@
       <c r="S368" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T368" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A369" s="22">
         <v>1054484</v>
       </c>
@@ -21312,8 +22428,11 @@
       <c r="S369" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T369" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A370" s="22">
         <v>1074682</v>
       </c>
@@ -21368,8 +22487,11 @@
       <c r="S370" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T370" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A371" s="22">
         <v>825129</v>
       </c>
@@ -21424,8 +22546,11 @@
       <c r="S371" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T371" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A372" s="22">
         <v>825455</v>
       </c>
@@ -21480,8 +22605,11 @@
       <c r="S372" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T372" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A373" s="22">
         <v>825057</v>
       </c>
@@ -21536,8 +22664,11 @@
       <c r="S373" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T373" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A374" s="22">
         <v>924345</v>
       </c>
@@ -21592,8 +22723,11 @@
       <c r="S374" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T374" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A375" s="22">
         <v>924226</v>
       </c>
@@ -21648,8 +22782,11 @@
       <c r="S375" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T375" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A376" s="22">
         <v>825176</v>
       </c>
@@ -21704,8 +22841,11 @@
       <c r="S376" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T376" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A377" s="22">
         <v>1074848</v>
       </c>
@@ -21760,8 +22900,11 @@
       <c r="S377" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T377" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A378" s="22">
         <v>825385</v>
       </c>
@@ -21816,8 +22959,11 @@
       <c r="S378" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T378" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A379" s="22">
         <v>825188</v>
       </c>
@@ -21872,8 +23018,11 @@
       <c r="S379" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T379" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A380" s="22">
         <v>924288</v>
       </c>
@@ -21928,8 +23077,11 @@
       <c r="S380" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T380" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A381" s="22">
         <v>825189</v>
       </c>
@@ -21984,8 +23136,11 @@
       <c r="S381" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T381" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A382" s="22">
         <v>1054481</v>
       </c>
@@ -22040,8 +23195,11 @@
       <c r="S382" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T382" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A383" s="22">
         <v>962394</v>
       </c>
@@ -22096,8 +23254,11 @@
       <c r="S383" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T383" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A384" s="22">
         <v>962396</v>
       </c>
@@ -22152,8 +23313,11 @@
       <c r="S384" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T384" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A385" s="22">
         <v>1007544</v>
       </c>
@@ -22208,8 +23372,11 @@
       <c r="S385" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T385" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A386" s="22">
         <v>924350</v>
       </c>
@@ -22264,8 +23431,11 @@
       <c r="S386" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T386" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A387" s="22">
         <v>1007469</v>
       </c>
@@ -22320,8 +23490,11 @@
       <c r="S387" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T387" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A388" s="22">
         <v>961817</v>
       </c>
@@ -22376,8 +23549,11 @@
       <c r="S388" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T388" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A389" s="22">
         <v>924405</v>
       </c>
@@ -22432,8 +23608,11 @@
       <c r="S389" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T389" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A390" s="22">
         <v>924588</v>
       </c>
@@ -22488,8 +23667,11 @@
       <c r="S390" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T390" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A391" s="22">
         <v>924528</v>
       </c>
@@ -22544,8 +23726,11 @@
       <c r="S391" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T391" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A392" s="22">
         <v>1074862</v>
       </c>
@@ -22600,8 +23785,11 @@
       <c r="S392" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T392" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A393" s="22">
         <v>1054489</v>
       </c>
@@ -22656,8 +23844,11 @@
       <c r="S393" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T393" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A394" s="22">
         <v>1044081</v>
       </c>
@@ -22712,8 +23903,11 @@
       <c r="S394" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T394" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A395" s="22">
         <v>924464</v>
       </c>
@@ -22768,8 +23962,11 @@
       <c r="S395" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T395" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A396" s="22">
         <v>1044095</v>
       </c>
@@ -22824,8 +24021,11 @@
       <c r="S396" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T396" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A397" s="22">
         <v>1044093</v>
       </c>
@@ -22880,8 +24080,11 @@
       <c r="S397" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T397" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A398" s="22">
         <v>924584</v>
       </c>
@@ -22936,8 +24139,11 @@
       <c r="S398" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T398" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A399" s="22">
         <v>924406</v>
       </c>
@@ -22992,8 +24198,11 @@
       <c r="S399" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T399" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A400" s="22">
         <v>674616</v>
       </c>
@@ -23048,8 +24257,11 @@
       <c r="S400" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T400" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A401" s="22">
         <v>824672</v>
       </c>
@@ -23104,8 +24316,11 @@
       <c r="S401" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T401" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A402" s="22">
         <v>1044132</v>
       </c>
@@ -23160,8 +24375,11 @@
       <c r="S402" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T402" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A403" s="22">
         <v>693717</v>
       </c>
@@ -23216,8 +24434,11 @@
       <c r="S403" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T403" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A404" s="22">
         <v>924466</v>
       </c>
@@ -23272,8 +24493,11 @@
       <c r="S404" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T404" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A405" s="22">
         <v>923761</v>
       </c>
@@ -23328,8 +24552,11 @@
       <c r="S405" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T405" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="406" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A406" s="22">
         <v>924469</v>
       </c>
@@ -23384,8 +24611,11 @@
       <c r="S406" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T406" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A407" s="22">
         <v>924465</v>
       </c>
@@ -23440,8 +24670,11 @@
       <c r="S407" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T407" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A408" s="22">
         <v>769805</v>
       </c>
@@ -23496,8 +24729,11 @@
       <c r="S408" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T408" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A409" s="22">
         <v>865648</v>
       </c>
@@ -23552,8 +24788,11 @@
       <c r="S409" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T409" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A410" s="22">
         <v>962168</v>
       </c>
@@ -23608,8 +24847,11 @@
       <c r="S410" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T410" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A411" s="22">
         <v>865649</v>
       </c>
@@ -23664,8 +24906,11 @@
       <c r="S411" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T411" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="412" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A412" s="22">
         <v>924585</v>
       </c>
@@ -23720,8 +24965,11 @@
       <c r="S412" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T412" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A413" s="22">
         <v>1044125</v>
       </c>
@@ -23776,8 +25024,11 @@
       <c r="S413" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T413" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="414" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A414" s="22">
         <v>1044126</v>
       </c>
@@ -23832,8 +25083,11 @@
       <c r="S414" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T414" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="415" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A415" s="22">
         <v>1074873</v>
       </c>
@@ -23888,8 +25142,11 @@
       <c r="S415" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T415" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="416" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A416" s="22">
         <v>1044122</v>
       </c>
@@ -23944,8 +25201,11 @@
       <c r="S416" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T416" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="417" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A417" s="22">
         <v>1044098</v>
       </c>
@@ -24000,8 +25260,11 @@
       <c r="S417" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T417" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="418" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A418" s="22">
         <v>924404</v>
       </c>
@@ -24056,8 +25319,11 @@
       <c r="S418" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T418" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="419" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A419" s="22">
         <v>1074844</v>
       </c>
@@ -24112,8 +25378,11 @@
       <c r="S419" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T419" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="420" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A420" s="22">
         <v>924522</v>
       </c>
@@ -24168,8 +25437,11 @@
       <c r="S420" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T420" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="421" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A421" s="22">
         <v>1044076</v>
       </c>
@@ -24224,8 +25496,11 @@
       <c r="S421" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T421" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="422" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A422" s="22">
         <v>1074857</v>
       </c>
@@ -24280,8 +25555,11 @@
       <c r="S422" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T422" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="423" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A423" s="22">
         <v>1044078</v>
       </c>
@@ -24336,8 +25614,11 @@
       <c r="S423" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T423" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="424" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A424" s="22">
         <v>924587</v>
       </c>
@@ -24392,8 +25673,11 @@
       <c r="S424" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T424" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="425" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A425" s="22">
         <v>824562</v>
       </c>
@@ -24448,8 +25732,11 @@
       <c r="S425" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T425" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="426" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A426" s="22">
         <v>924462</v>
       </c>
@@ -24504,8 +25791,11 @@
       <c r="S426" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T426" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="427" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A427" s="22">
         <v>923760</v>
       </c>
@@ -24560,8 +25850,11 @@
       <c r="S427" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T427" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="428" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A428" s="22">
         <v>1058185</v>
       </c>
@@ -24616,8 +25909,11 @@
       <c r="S428" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T428" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="429" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A429" s="22">
         <v>825517</v>
       </c>
@@ -24672,8 +25968,11 @@
       <c r="S429" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T429" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="430" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A430" s="22">
         <v>924172</v>
       </c>
@@ -24728,8 +26027,11 @@
       <c r="S430" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T430" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="431" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A431" s="22">
         <v>664851</v>
       </c>
@@ -24784,8 +26086,11 @@
       <c r="S431" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T431" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="432" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A432" s="22">
         <v>961895</v>
       </c>
@@ -24840,8 +26145,11 @@
       <c r="S432" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T432" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="433" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A433" s="22">
         <v>824544</v>
       </c>
@@ -24896,8 +26204,11 @@
       <c r="S433" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T433" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="434" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A434" s="22">
         <v>961965</v>
       </c>
@@ -24952,8 +26263,11 @@
       <c r="S434" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T434" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="435" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A435" s="22">
         <v>935439</v>
       </c>
@@ -25008,8 +26322,11 @@
       <c r="S435" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T435" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="436" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A436" s="22">
         <v>825453</v>
       </c>
@@ -25064,8 +26381,11 @@
       <c r="S436" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T436" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="437" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A437" s="22">
         <v>1058203</v>
       </c>
@@ -25120,8 +26440,11 @@
       <c r="S437" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T437" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="438" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A438" s="22">
         <v>825587</v>
       </c>
@@ -25176,8 +26499,11 @@
       <c r="S438" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T438" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="439" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A439" s="22">
         <v>935671</v>
       </c>
@@ -25232,8 +26558,11 @@
       <c r="S439" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T439" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="440" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A440" s="22">
         <v>825328</v>
       </c>
@@ -25288,8 +26617,11 @@
       <c r="S440" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T440" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="441" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A441" s="22">
         <v>924016</v>
       </c>
@@ -25344,8 +26676,11 @@
       <c r="S441" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T441" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="442" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A442" s="22">
         <v>924023</v>
       </c>
@@ -25400,8 +26735,11 @@
       <c r="S442" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T442" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="443" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A443" s="22">
         <v>1074676</v>
       </c>
@@ -25456,8 +26794,11 @@
       <c r="S443" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T443" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="444" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A444" s="22">
         <v>924170</v>
       </c>
@@ -25512,8 +26853,11 @@
       <c r="S444" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T444" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="445" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A445" s="22">
         <v>824654</v>
       </c>
@@ -25568,8 +26912,11 @@
       <c r="S445" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T445" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="446" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A446" s="22">
         <v>924070</v>
       </c>
@@ -25624,8 +26971,11 @@
       <c r="S446" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T446" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="447" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A447" s="22">
         <v>961966</v>
       </c>
@@ -25680,8 +27030,11 @@
       <c r="S447" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T447" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="448" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A448" s="22">
         <v>924020</v>
       </c>
@@ -25736,8 +27089,11 @@
       <c r="S448" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T448" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="449" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A449" s="22">
         <v>924071</v>
       </c>
@@ -25792,8 +27148,11 @@
       <c r="S449" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T449" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="450" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A450" s="22">
         <v>924122</v>
       </c>
@@ -25848,8 +27207,11 @@
       <c r="S450" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T450" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="451" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A451" s="22">
         <v>961933</v>
       </c>
@@ -25904,8 +27266,11 @@
       <c r="S451" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T451" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="452" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A452" s="22">
         <v>1058201</v>
       </c>
@@ -25960,8 +27325,11 @@
       <c r="S452" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T452" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="453" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A453" s="22">
         <v>924120</v>
       </c>
@@ -26016,8 +27384,11 @@
       <c r="S453" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T453" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="454" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A454" s="22">
         <v>1054368</v>
       </c>
@@ -26072,8 +27443,11 @@
       <c r="S454" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T454" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="455" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A455" s="22">
         <v>924017</v>
       </c>
@@ -26128,8 +27502,11 @@
       <c r="S455" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T455" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="456" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A456" s="22">
         <v>924117</v>
       </c>
@@ -26184,8 +27561,11 @@
       <c r="S456" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T456" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="457" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A457" s="22">
         <v>1074675</v>
       </c>
@@ -26240,8 +27620,11 @@
       <c r="S457" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T457" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="458" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A458" s="22">
         <v>936007</v>
       </c>
@@ -26296,8 +27679,11 @@
       <c r="S458" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T458" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="459" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A459" s="22">
         <v>924019</v>
       </c>
@@ -26352,8 +27738,11 @@
       <c r="S459" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T459" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="460" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A460" s="22">
         <v>824419</v>
       </c>
@@ -26408,8 +27797,11 @@
       <c r="S460" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T460" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="461" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A461" s="22">
         <v>935998</v>
       </c>
@@ -26464,8 +27856,11 @@
       <c r="S461" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T461" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="462" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A462" s="22">
         <v>1054559</v>
       </c>
@@ -26520,8 +27915,11 @@
       <c r="S462" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T462" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="463" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A463" s="22">
         <v>1054294</v>
       </c>
@@ -26576,8 +27974,11 @@
       <c r="S463" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T463" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="464" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A464" s="22">
         <v>936328</v>
       </c>
@@ -26632,8 +28033,11 @@
       <c r="S464" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T464" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="465" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A465" s="22">
         <v>824650</v>
       </c>
@@ -26688,8 +28092,11 @@
       <c r="S465" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T465" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="466" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A466" s="22">
         <v>1011158</v>
       </c>
@@ -26744,8 +28151,11 @@
       <c r="S466" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T466" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="467" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A467" s="22">
         <v>924066</v>
       </c>
@@ -26800,8 +28210,11 @@
       <c r="S467" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T467" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="468" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A468" s="22">
         <v>936084</v>
       </c>
@@ -26856,8 +28269,11 @@
       <c r="S468" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T468" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="469" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A469" s="22">
         <v>1074672</v>
       </c>
@@ -26912,8 +28328,11 @@
       <c r="S469" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T469" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="470" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A470" s="22">
         <v>825521</v>
       </c>
@@ -26968,8 +28387,11 @@
       <c r="S470" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T470" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="471" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A471" s="22">
         <v>1074674</v>
       </c>
@@ -27024,8 +28446,11 @@
       <c r="S471" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T471" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="472" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A472" s="22">
         <v>825523</v>
       </c>
@@ -27080,8 +28505,11 @@
       <c r="S472" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T472" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="473" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A473" s="22">
         <v>824424</v>
       </c>
@@ -27136,8 +28564,11 @@
       <c r="S473" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T473" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="474" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A474" s="22">
         <v>961896</v>
       </c>
@@ -27192,8 +28623,11 @@
       <c r="S474" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T474" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="475" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A475" s="22">
         <v>825386</v>
       </c>
@@ -27248,8 +28682,11 @@
       <c r="S475" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T475" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="476" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A476" s="22">
         <v>924168</v>
       </c>
@@ -27304,9 +28741,12 @@
       <c r="S476" s="18" t="s">
         <v>27</v>
       </c>
+      <c r="T476" s="18" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:S476" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:T476" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K737373 Classificado como Público</oddFooter>

--- a/PRIORIZAR.xlsx
+++ b/PRIORIZAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://timbrasil-my.sharepoint.com/personal/tblacerda_timbrasil_com_br/Documents/__Automacao_de_tarefas/HACK@TIM_2024/__ENTREGAVEIS_GRUPO_XX_DANTIMZIG__/PYTHON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="11_F25DC773A252ABDACC104865295C53F25ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67D3B416-514D-43F8-A142-B00D629D8E32}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="11_F25DC773A252ABDACC104865295C53F25ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4402D2A6-472B-412E-A486-ED1C387A29C8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>NPS</t>
   </si>
   <si>
-    <t>OBRIGAÇÃO</t>
-  </si>
-  <si>
     <t>CAPACIDADE</t>
   </si>
   <si>
@@ -66,18 +63,6 @@
   </si>
   <si>
     <t>RISCO TX</t>
-  </si>
-  <si>
-    <t>RFW</t>
-  </si>
-  <si>
-    <t>DETENTOR</t>
-  </si>
-  <si>
-    <t>TIPO INFRA</t>
-  </si>
-  <si>
-    <t>URGÊNCIA</t>
   </si>
   <si>
     <t>ranking</t>
@@ -160,6 +145,21 @@
   <si>
     <t>TNE_2</t>
   </si>
+  <si>
+    <t>OBRIGACAO</t>
+  </si>
+  <si>
+    <t>URGENCIA</t>
+  </si>
+  <si>
+    <t>RISCO_RFW</t>
+  </si>
+  <si>
+    <t>RISCO_DETENTOR</t>
+  </si>
+  <si>
+    <t>RISCO_INFRA</t>
+  </si>
 </sst>
 </file>
 
@@ -168,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###000000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +228,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -313,7 +319,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -389,6 +395,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -674,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,8 +699,7 @@
     <col min="8" max="8" width="12" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.5703125" style="18" bestFit="1" customWidth="1"/>
@@ -703,7 +711,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -718,54 +726,54 @@
         <v>3</v>
       </c>
       <c r="F1" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="T1" s="25" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" s="8">
         <v>0.03</v>
@@ -814,7 +822,7 @@
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3" s="15">
         <v>1</v>
@@ -862,7 +870,7 @@
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B4" s="15">
         <v>0</v>
@@ -910,7 +918,7 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B5" s="15">
         <v>0</v>
@@ -1006,13 +1014,13 @@
         <v>-37.880833000000003</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S6" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T6" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1065,13 +1073,13 @@
         <v>-38.404797000000002</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S7" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T7" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1124,13 +1132,13 @@
         <v>-35.182250000000003</v>
       </c>
       <c r="R8" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S8" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T8" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1183,13 +1191,13 @@
         <v>-44.274078000000003</v>
       </c>
       <c r="R9" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S9" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T9" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1242,13 +1250,13 @@
         <v>-38.515749999999997</v>
       </c>
       <c r="R10" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S10" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T10" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1301,13 +1309,13 @@
         <v>-37.081277999999998</v>
       </c>
       <c r="R11" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S11" s="18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="T11" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1360,13 +1368,13 @@
         <v>-37.096200000000003</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S12" s="18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="T12" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1419,13 +1427,13 @@
         <v>-38.472448999999997</v>
       </c>
       <c r="R13" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S13" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T13" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1478,13 +1486,13 @@
         <v>-39.395972</v>
       </c>
       <c r="R14" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S14" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T14" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1537,13 +1545,13 @@
         <v>-40.373972000000002</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T15" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1596,13 +1604,13 @@
         <v>-39.454861000000001</v>
       </c>
       <c r="R16" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S16" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T16" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -1655,13 +1663,13 @@
         <v>-39.374139</v>
       </c>
       <c r="R17" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S17" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T17" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -1714,13 +1722,13 @@
         <v>-38.477857999999998</v>
       </c>
       <c r="R18" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S18" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T18" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -1773,13 +1781,13 @@
         <v>-39.083278</v>
       </c>
       <c r="R19" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S19" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T19" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -1832,13 +1840,13 @@
         <v>-38.466611</v>
       </c>
       <c r="R20" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S20" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T20" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -1891,13 +1899,13 @@
         <v>-44.948306000000002</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S21" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -1950,13 +1958,13 @@
         <v>-38.452800000000003</v>
       </c>
       <c r="R22" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S22" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2009,13 +2017,13 @@
         <v>-38.472306000000003</v>
       </c>
       <c r="R23" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S23" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T23" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2068,13 +2076,13 @@
         <v>-40.635666999999998</v>
       </c>
       <c r="R24" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S24" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T24" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2127,13 +2135,13 @@
         <v>-40.372833</v>
       </c>
       <c r="R25" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S25" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T25" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -2186,13 +2194,13 @@
         <v>-40.897888999999999</v>
       </c>
       <c r="R26" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S26" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T26" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -2245,13 +2253,13 @@
         <v>-39.533011000000002</v>
       </c>
       <c r="R27" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S27" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T27" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -2304,13 +2312,13 @@
         <v>-41.137861000000001</v>
       </c>
       <c r="R28" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S28" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T28" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -2363,13 +2371,13 @@
         <v>-38.580266999999999</v>
       </c>
       <c r="R29" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S29" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T29" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -2422,13 +2430,13 @@
         <v>-39.389916999999997</v>
       </c>
       <c r="R30" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S30" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T30" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -2481,13 +2489,13 @@
         <v>-42.721001000000001</v>
       </c>
       <c r="R31" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S31" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T31" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -2540,13 +2548,13 @@
         <v>-39.495426000000002</v>
       </c>
       <c r="R32" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S32" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T32" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -2599,13 +2607,13 @@
         <v>-43.347073000000002</v>
       </c>
       <c r="R33" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S33" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T33" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -2658,13 +2666,13 @@
         <v>-38.455055999999999</v>
       </c>
       <c r="R34" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S34" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T34" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -2717,13 +2725,13 @@
         <v>-44.691003000000002</v>
       </c>
       <c r="R35" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S35" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T35" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -2776,13 +2784,13 @@
         <v>-44.719299999999997</v>
       </c>
       <c r="R36" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S36" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T36" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -2835,13 +2843,13 @@
         <v>-44.688552999999999</v>
       </c>
       <c r="R37" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S37" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T37" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -2894,13 +2902,13 @@
         <v>-45.090944</v>
       </c>
       <c r="R38" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S38" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T38" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -2953,13 +2961,13 @@
         <v>-40.820256999999998</v>
       </c>
       <c r="R39" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S39" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T39" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -3012,13 +3020,13 @@
         <v>-38.924869000000001</v>
       </c>
       <c r="R40" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S40" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T40" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -3071,13 +3079,13 @@
         <v>-38.274667000000001</v>
       </c>
       <c r="R41" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S41" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T41" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -3130,13 +3138,13 @@
         <v>-41.026966999999999</v>
       </c>
       <c r="R42" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S42" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T42" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -3189,13 +3197,13 @@
         <v>-40.171107999999997</v>
       </c>
       <c r="R43" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S43" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T43" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -3248,13 +3256,13 @@
         <v>-46.262188999999999</v>
       </c>
       <c r="R44" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S44" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T44" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -3307,13 +3315,13 @@
         <v>-44.211047000000001</v>
       </c>
       <c r="R45" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S45" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T45" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -3366,13 +3374,13 @@
         <v>-44.115502999999997</v>
       </c>
       <c r="R46" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S46" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T46" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -3425,13 +3433,13 @@
         <v>-42.898600999999999</v>
       </c>
       <c r="R47" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S47" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T47" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -3484,13 +3492,13 @@
         <v>-42.783082999999998</v>
       </c>
       <c r="R48" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S48" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T48" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -3543,13 +3551,13 @@
         <v>-38.427607999999999</v>
       </c>
       <c r="R49" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S49" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T49" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -3566,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F50" s="18">
         <v>0</v>
@@ -3602,13 +3610,13 @@
         <v>-34.896946999999997</v>
       </c>
       <c r="R50" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S50" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T50" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -3661,13 +3669,13 @@
         <v>-42.801749999999998</v>
       </c>
       <c r="R51" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S51" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T51" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -3720,13 +3728,13 @@
         <v>-39.574694000000001</v>
       </c>
       <c r="R52" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S52" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T52" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -3779,13 +3787,13 @@
         <v>-39.293610999999999</v>
       </c>
       <c r="R53" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S53" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T53" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -3838,13 +3846,13 @@
         <v>-35.713639000000001</v>
       </c>
       <c r="R54" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S54" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T54" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -3897,13 +3905,13 @@
         <v>-35.804499999999997</v>
       </c>
       <c r="R55" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S55" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T55" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
@@ -3920,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F56" s="18">
         <v>0</v>
@@ -3956,13 +3964,13 @@
         <v>-38.897778000000002</v>
       </c>
       <c r="R56" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S56" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T56" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -4015,13 +4023,13 @@
         <v>-38.971111000000001</v>
       </c>
       <c r="R57" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S57" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T57" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -4074,13 +4082,13 @@
         <v>-38.965583000000002</v>
       </c>
       <c r="R58" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S58" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T58" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -4133,13 +4141,13 @@
         <v>-38.989083000000001</v>
       </c>
       <c r="R59" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S59" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T59" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -4192,13 +4200,13 @@
         <v>-38.946111000000002</v>
       </c>
       <c r="R60" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S60" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T60" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -4215,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F61" s="18">
         <v>0</v>
@@ -4251,13 +4259,13 @@
         <v>-38.905749999999998</v>
       </c>
       <c r="R61" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S61" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T61" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -4310,13 +4318,13 @@
         <v>-38.205556000000001</v>
       </c>
       <c r="R62" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S62" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T62" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -4369,13 +4377,13 @@
         <v>-40.808259</v>
       </c>
       <c r="R63" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S63" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T63" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -4392,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F64" s="18">
         <v>0</v>
@@ -4428,13 +4436,13 @@
         <v>-40.815778000000002</v>
       </c>
       <c r="R64" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S64" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T64" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -4487,13 +4495,13 @@
         <v>-37.102249999999998</v>
       </c>
       <c r="R65" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S65" s="18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="T65" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -4546,13 +4554,13 @@
         <v>-34.840944</v>
       </c>
       <c r="R66" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S66" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T66" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -4569,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F67" s="18">
         <v>0</v>
@@ -4605,13 +4613,13 @@
         <v>-34.871250000000003</v>
       </c>
       <c r="R67" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S67" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T67" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
@@ -4664,13 +4672,13 @@
         <v>-34.932250000000003</v>
       </c>
       <c r="R68" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S68" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T68" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -4723,13 +4731,13 @@
         <v>-34.918111000000003</v>
       </c>
       <c r="R69" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S69" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T69" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -4782,13 +4790,13 @@
         <v>-34.918166999999997</v>
       </c>
       <c r="R70" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S70" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T70" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
@@ -4841,13 +4849,13 @@
         <v>-42.747278000000001</v>
       </c>
       <c r="R71" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S71" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T71" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -4900,13 +4908,13 @@
         <v>-42.805588999999998</v>
       </c>
       <c r="R72" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S72" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T72" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
@@ -4923,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F73" s="18">
         <v>0</v>
@@ -4959,13 +4967,13 @@
         <v>-34.848806000000003</v>
       </c>
       <c r="R73" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S73" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T73" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
@@ -5018,13 +5026,13 @@
         <v>-34.833888999999999</v>
       </c>
       <c r="R74" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S74" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T74" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
@@ -5077,13 +5085,13 @@
         <v>-34.832250000000002</v>
       </c>
       <c r="R75" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S75" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T75" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
@@ -5136,13 +5144,13 @@
         <v>-42.816667000000002</v>
       </c>
       <c r="R76" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S76" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T76" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -5195,13 +5203,13 @@
         <v>-42.814999999999998</v>
       </c>
       <c r="R77" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S77" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T77" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
@@ -5254,13 +5262,13 @@
         <v>-42.734721999999998</v>
       </c>
       <c r="R78" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S78" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T78" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
@@ -5277,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F79" s="18">
         <v>0</v>
@@ -5313,13 +5321,13 @@
         <v>-42.789499999999997</v>
       </c>
       <c r="R79" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S79" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T79" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
@@ -5372,13 +5380,13 @@
         <v>-34.799388999999998</v>
       </c>
       <c r="R80" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S80" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T80" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
@@ -5395,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F81" s="18">
         <v>0</v>
@@ -5431,13 +5439,13 @@
         <v>-34.858471999999999</v>
       </c>
       <c r="R81" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S81" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T81" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
@@ -5490,13 +5498,13 @@
         <v>-34.848832999999999</v>
       </c>
       <c r="R82" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S82" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T82" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
@@ -5549,13 +5557,13 @@
         <v>-34.828833000000003</v>
       </c>
       <c r="R83" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S83" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T83" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
@@ -5608,13 +5616,13 @@
         <v>-42.778388999999997</v>
       </c>
       <c r="R84" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S84" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T84" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
@@ -5631,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F85" s="18">
         <v>0</v>
@@ -5667,13 +5675,13 @@
         <v>-42.825277999999997</v>
       </c>
       <c r="R85" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S85" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T85" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
@@ -5726,13 +5734,13 @@
         <v>-42.810305999999997</v>
       </c>
       <c r="R86" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S86" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T86" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
@@ -5749,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F87" s="18">
         <v>0</v>
@@ -5785,13 +5793,13 @@
         <v>-35.049472000000002</v>
       </c>
       <c r="R87" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S87" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T87" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
@@ -5844,13 +5852,13 @@
         <v>-37.354666999999999</v>
       </c>
       <c r="R88" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S88" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T88" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
@@ -5867,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F89" s="18">
         <v>0</v>
@@ -5903,13 +5911,13 @@
         <v>-37.330841999999997</v>
       </c>
       <c r="R89" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S89" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T89" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
@@ -5962,13 +5970,13 @@
         <v>-35.207000000000001</v>
       </c>
       <c r="R90" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S90" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T90" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -6021,13 +6029,13 @@
         <v>-35.231138999999999</v>
       </c>
       <c r="R91" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S91" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T91" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
@@ -6080,13 +6088,13 @@
         <v>-35.264111</v>
       </c>
       <c r="R92" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S92" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T92" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
@@ -6139,13 +6147,13 @@
         <v>-36.471693999999999</v>
       </c>
       <c r="R93" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S93" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T93" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
@@ -6198,13 +6206,13 @@
         <v>-35.241472000000002</v>
       </c>
       <c r="R94" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S94" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T94" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
@@ -6257,13 +6265,13 @@
         <v>-35.262528000000003</v>
       </c>
       <c r="R95" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S95" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T95" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
@@ -6316,13 +6324,13 @@
         <v>-35.195667</v>
       </c>
       <c r="R96" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S96" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T96" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
@@ -6375,13 +6383,13 @@
         <v>-35.203167000000001</v>
       </c>
       <c r="R97" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S97" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T97" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
@@ -6434,13 +6442,13 @@
         <v>-39.318333000000003</v>
       </c>
       <c r="R98" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S98" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T98" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
@@ -6493,13 +6501,13 @@
         <v>-38.205556000000001</v>
       </c>
       <c r="R99" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S99" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T99" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
@@ -6552,13 +6560,13 @@
         <v>-39.419528</v>
       </c>
       <c r="R100" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S100" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T100" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
@@ -6611,13 +6619,13 @@
         <v>-39.409528000000002</v>
       </c>
       <c r="R101" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S101" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T101" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
@@ -6670,13 +6678,13 @@
         <v>-38.582639</v>
       </c>
       <c r="R102" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S102" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T102" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
@@ -6729,13 +6737,13 @@
         <v>-37.980499999999999</v>
       </c>
       <c r="R103" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S103" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T103" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
@@ -6788,13 +6796,13 @@
         <v>-40.350189</v>
       </c>
       <c r="R104" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S104" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T104" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
@@ -6847,13 +6855,13 @@
         <v>-38.541556</v>
       </c>
       <c r="R105" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S105" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T105" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
@@ -6906,13 +6914,13 @@
         <v>-38.553221999999998</v>
       </c>
       <c r="R106" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S106" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T106" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
@@ -6965,13 +6973,13 @@
         <v>-38.616689000000001</v>
       </c>
       <c r="R107" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S107" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T107" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
@@ -7024,13 +7032,13 @@
         <v>-40.069555999999999</v>
       </c>
       <c r="R108" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S108" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T108" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
@@ -7083,13 +7091,13 @@
         <v>-35.287222</v>
       </c>
       <c r="R109" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S109" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T109" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
@@ -7142,13 +7150,13 @@
         <v>-35.894193999999999</v>
       </c>
       <c r="R110" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S110" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T110" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
@@ -7201,13 +7209,13 @@
         <v>-35.876972000000002</v>
       </c>
       <c r="R111" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S111" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T111" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
@@ -7260,13 +7268,13 @@
         <v>-35.738332999999997</v>
       </c>
       <c r="R112" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S112" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T112" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
@@ -7319,13 +7327,13 @@
         <v>-35.733361000000002</v>
       </c>
       <c r="R113" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S113" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T113" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
@@ -7378,13 +7386,13 @@
         <v>-35.728611000000001</v>
       </c>
       <c r="R114" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S114" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T114" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
@@ -7437,13 +7445,13 @@
         <v>-35.709761</v>
       </c>
       <c r="R115" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S115" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T115" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
@@ -7496,13 +7504,13 @@
         <v>-35.727639000000003</v>
       </c>
       <c r="R116" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S116" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T116" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
@@ -7519,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F117" s="18">
         <v>0</v>
@@ -7555,13 +7563,13 @@
         <v>-35.712203000000002</v>
       </c>
       <c r="R117" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S117" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T117" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
@@ -7614,13 +7622,13 @@
         <v>-35.756749999999997</v>
       </c>
       <c r="R118" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S118" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T118" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
@@ -7673,13 +7681,13 @@
         <v>-35.757860999999998</v>
       </c>
       <c r="R119" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S119" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T119" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
@@ -7732,13 +7740,13 @@
         <v>-39.278888999999999</v>
       </c>
       <c r="R120" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S120" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T120" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
@@ -7791,13 +7799,13 @@
         <v>-34.867666999999997</v>
       </c>
       <c r="R121" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S121" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T121" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
@@ -7814,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="E122" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F122" s="18">
         <v>0</v>
@@ -7850,13 +7858,13 @@
         <v>-34.824638999999998</v>
       </c>
       <c r="R122" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S122" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T122" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
@@ -7909,13 +7917,13 @@
         <v>-35.774166999999998</v>
       </c>
       <c r="R123" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S123" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T123" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
@@ -7968,13 +7976,13 @@
         <v>-35.782527999999999</v>
       </c>
       <c r="R124" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S124" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T124" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
@@ -7991,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="E125" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F125" s="18">
         <v>0</v>
@@ -8027,13 +8035,13 @@
         <v>-38.474083</v>
       </c>
       <c r="R125" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S125" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T125" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
@@ -8050,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F126" s="18">
         <v>0</v>
@@ -8086,13 +8094,13 @@
         <v>-38.481307999999999</v>
       </c>
       <c r="R126" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S126" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T126" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
@@ -8145,13 +8153,13 @@
         <v>-34.944000000000003</v>
       </c>
       <c r="R127" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S127" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T127" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
@@ -8204,13 +8212,13 @@
         <v>-34.905917000000002</v>
       </c>
       <c r="R128" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S128" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T128" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
@@ -8263,13 +8271,13 @@
         <v>-36.657611000000003</v>
       </c>
       <c r="R129" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S129" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T129" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
@@ -8322,13 +8330,13 @@
         <v>-39.060555999999998</v>
       </c>
       <c r="R130" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S130" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T130" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
@@ -8345,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F131" s="18">
         <v>0</v>
@@ -8381,13 +8389,13 @@
         <v>-36.671944000000003</v>
       </c>
       <c r="R131" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S131" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T131" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
@@ -8440,13 +8448,13 @@
         <v>-36.639972</v>
       </c>
       <c r="R132" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S132" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T132" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
@@ -8499,13 +8507,13 @@
         <v>-36.653333000000003</v>
       </c>
       <c r="R133" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S133" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T133" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
@@ -8558,13 +8566,13 @@
         <v>-37.078980999999999</v>
       </c>
       <c r="R134" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S134" s="18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="T134" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
@@ -8617,13 +8625,13 @@
         <v>-35.702388999999997</v>
       </c>
       <c r="R135" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S135" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T135" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
@@ -8676,13 +8684,13 @@
         <v>-40.504472</v>
       </c>
       <c r="R136" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S136" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T136" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
@@ -8735,13 +8743,13 @@
         <v>-35.684722000000001</v>
       </c>
       <c r="R137" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S137" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T137" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
@@ -8758,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="E138" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F138" s="18">
         <v>0</v>
@@ -8794,13 +8802,13 @@
         <v>-35.696027999999998</v>
       </c>
       <c r="R138" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S138" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T138" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
@@ -8853,13 +8861,13 @@
         <v>-37.288333000000002</v>
       </c>
       <c r="R139" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S139" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T139" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
@@ -8912,13 +8920,13 @@
         <v>-37.283056000000002</v>
       </c>
       <c r="R140" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S140" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T140" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
@@ -8935,7 +8943,7 @@
         <v>0</v>
       </c>
       <c r="E141" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F141" s="18">
         <v>0</v>
@@ -8971,13 +8979,13 @@
         <v>-37.262943999999997</v>
       </c>
       <c r="R141" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S141" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T141" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
@@ -9030,13 +9038,13 @@
         <v>-38.758861000000003</v>
       </c>
       <c r="R142" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S142" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T142" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
@@ -9089,13 +9097,13 @@
         <v>-38.867800000000003</v>
       </c>
       <c r="R143" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S143" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T143" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
@@ -9148,13 +9156,13 @@
         <v>-39.202178000000004</v>
       </c>
       <c r="R144" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S144" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T144" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
@@ -9207,13 +9215,13 @@
         <v>-39.108027999999997</v>
       </c>
       <c r="R145" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S145" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T145" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
@@ -9230,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F146" s="18">
         <v>0</v>
@@ -9266,13 +9274,13 @@
         <v>-38.213472000000003</v>
       </c>
       <c r="R146" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S146" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T146" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
@@ -9325,13 +9333,13 @@
         <v>-38.225833000000002</v>
       </c>
       <c r="R147" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S147" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T147" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
@@ -9384,13 +9392,13 @@
         <v>-39.005833000000003</v>
       </c>
       <c r="R148" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S148" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T148" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
@@ -9443,13 +9451,13 @@
         <v>-39.007944000000002</v>
       </c>
       <c r="R149" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S149" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T149" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
@@ -9502,13 +9510,13 @@
         <v>-39.069721999999999</v>
       </c>
       <c r="R150" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S150" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T150" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
@@ -9561,13 +9569,13 @@
         <v>-35.770305999999998</v>
       </c>
       <c r="R151" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S151" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T151" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
@@ -9620,13 +9628,13 @@
         <v>-35.750028</v>
       </c>
       <c r="R152" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S152" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T152" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
@@ -9643,7 +9651,7 @@
         <v>0</v>
       </c>
       <c r="E153" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F153" s="18">
         <v>0</v>
@@ -9679,13 +9687,13 @@
         <v>-35.764000000000003</v>
       </c>
       <c r="R153" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S153" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T153" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
@@ -9738,13 +9746,13 @@
         <v>-34.886389000000001</v>
       </c>
       <c r="R154" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S154" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T154" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
@@ -9797,13 +9805,13 @@
         <v>-34.879944000000002</v>
       </c>
       <c r="R155" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S155" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T155" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
@@ -9856,13 +9864,13 @@
         <v>-34.909306000000001</v>
       </c>
       <c r="R156" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S156" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T156" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
@@ -9915,13 +9923,13 @@
         <v>-37.295583000000001</v>
       </c>
       <c r="R157" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S157" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T157" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
@@ -9974,13 +9982,13 @@
         <v>-37.276944</v>
       </c>
       <c r="R158" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S158" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T158" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
@@ -9997,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F159" s="18">
         <v>0</v>
@@ -10033,13 +10041,13 @@
         <v>-34.865861000000002</v>
       </c>
       <c r="R159" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S159" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T159" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
@@ -10056,7 +10064,7 @@
         <v>0</v>
       </c>
       <c r="E160" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F160" s="18">
         <v>0</v>
@@ -10092,13 +10100,13 @@
         <v>-35.215833000000003</v>
       </c>
       <c r="R160" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S160" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T160" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
@@ -10151,13 +10159,13 @@
         <v>-35.206194000000004</v>
       </c>
       <c r="R161" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S161" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T161" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
@@ -10210,13 +10218,13 @@
         <v>-35.204528000000003</v>
       </c>
       <c r="R162" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S162" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T162" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
@@ -10269,13 +10277,13 @@
         <v>-42.800111000000001</v>
       </c>
       <c r="R163" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S163" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T163" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
@@ -10292,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F164" s="18">
         <v>0</v>
@@ -10328,13 +10336,13 @@
         <v>-42.791611000000003</v>
       </c>
       <c r="R164" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S164" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T164" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
@@ -10387,13 +10395,13 @@
         <v>-35.200583000000002</v>
       </c>
       <c r="R165" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S165" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T165" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
@@ -10410,7 +10418,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F166" s="18">
         <v>0</v>
@@ -10446,13 +10454,13 @@
         <v>-35.278610999999998</v>
       </c>
       <c r="R166" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S166" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T166" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
@@ -10505,13 +10513,13 @@
         <v>-35.245832999999998</v>
       </c>
       <c r="R167" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S167" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T167" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
@@ -10564,13 +10572,13 @@
         <v>-35.255110999999999</v>
       </c>
       <c r="R168" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S168" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T168" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.25">
@@ -10623,13 +10631,13 @@
         <v>-35.277794</v>
       </c>
       <c r="R169" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S169" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T169" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.25">
@@ -10682,13 +10690,13 @@
         <v>-42.783028000000002</v>
       </c>
       <c r="R170" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S170" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T170" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.25">
@@ -10741,13 +10749,13 @@
         <v>-42.833638999999998</v>
       </c>
       <c r="R171" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S171" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T171" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.25">
@@ -10800,13 +10808,13 @@
         <v>-42.761611000000002</v>
       </c>
       <c r="R172" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S172" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T172" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.25">
@@ -10859,13 +10867,13 @@
         <v>-35.231499999999997</v>
       </c>
       <c r="R173" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S173" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T173" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.25">
@@ -10918,13 +10926,13 @@
         <v>-35.266666999999998</v>
       </c>
       <c r="R174" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S174" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T174" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.25">
@@ -10977,13 +10985,13 @@
         <v>-35.211388999999997</v>
       </c>
       <c r="R175" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S175" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T175" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.25">
@@ -11036,13 +11044,13 @@
         <v>-35.260838999999997</v>
       </c>
       <c r="R176" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S176" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T176" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.25">
@@ -11095,13 +11103,13 @@
         <v>-35.257430999999997</v>
       </c>
       <c r="R177" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S177" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T177" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.25">
@@ -11118,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="E178" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F178" s="18">
         <v>0</v>
@@ -11154,13 +11162,13 @@
         <v>-36.490639000000002</v>
       </c>
       <c r="R178" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S178" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T178" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.25">
@@ -11213,13 +11221,13 @@
         <v>-36.505110999999999</v>
       </c>
       <c r="R179" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S179" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T179" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.25">
@@ -11272,13 +11280,13 @@
         <v>-36.495556000000001</v>
       </c>
       <c r="R180" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S180" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T180" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.25">
@@ -11331,13 +11339,13 @@
         <v>-35.270555999999999</v>
       </c>
       <c r="R181" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S181" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T181" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.25">
@@ -11354,7 +11362,7 @@
         <v>0</v>
       </c>
       <c r="E182" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F182" s="18">
         <v>0</v>
@@ -11390,13 +11398,13 @@
         <v>-35.214888999999999</v>
       </c>
       <c r="R182" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S182" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T182" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.25">
@@ -11449,13 +11457,13 @@
         <v>-35.251694000000001</v>
       </c>
       <c r="R183" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S183" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T183" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.25">
@@ -11508,13 +11516,13 @@
         <v>-35.221111000000001</v>
       </c>
       <c r="R184" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S184" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T184" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.25">
@@ -11531,7 +11539,7 @@
         <v>0</v>
       </c>
       <c r="E185" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F185" s="18">
         <v>0</v>
@@ -11567,13 +11575,13 @@
         <v>-35.246389000000001</v>
       </c>
       <c r="R185" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S185" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T185" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.25">
@@ -11590,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="E186" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F186" s="18">
         <v>0</v>
@@ -11626,13 +11634,13 @@
         <v>-35.181694</v>
       </c>
       <c r="R186" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S186" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T186" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.25">
@@ -11649,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="E187" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F187" s="18">
         <v>0</v>
@@ -11685,13 +11693,13 @@
         <v>-35.206139</v>
       </c>
       <c r="R187" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S187" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T187" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.25">
@@ -11744,13 +11752,13 @@
         <v>-39.578888999999997</v>
       </c>
       <c r="R188" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S188" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T188" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.25">
@@ -11803,13 +11811,13 @@
         <v>-39.592778000000003</v>
       </c>
       <c r="R189" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S189" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T189" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.25">
@@ -11862,13 +11870,13 @@
         <v>-39.569194000000003</v>
       </c>
       <c r="R190" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S190" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T190" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.25">
@@ -11921,13 +11929,13 @@
         <v>-39.573889000000001</v>
       </c>
       <c r="R191" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S191" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T191" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.25">
@@ -11980,13 +11988,13 @@
         <v>-39.336139000000003</v>
       </c>
       <c r="R192" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S192" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T192" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.25">
@@ -12039,13 +12047,13 @@
         <v>-42.735694000000002</v>
       </c>
       <c r="R193" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S193" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T193" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.25">
@@ -12098,13 +12106,13 @@
         <v>-42.810043999999998</v>
       </c>
       <c r="R194" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S194" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T194" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.25">
@@ -12157,13 +12165,13 @@
         <v>-42.825333000000001</v>
       </c>
       <c r="R195" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S195" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T195" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.25">
@@ -12216,13 +12224,13 @@
         <v>-42.788910999999999</v>
       </c>
       <c r="R196" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S196" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T196" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.25">
@@ -12275,13 +12283,13 @@
         <v>-40.859583000000001</v>
       </c>
       <c r="R197" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S197" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T197" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.25">
@@ -12334,13 +12342,13 @@
         <v>-42.788694</v>
       </c>
       <c r="R198" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S198" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T198" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.25">
@@ -12393,13 +12401,13 @@
         <v>-42.815083000000001</v>
       </c>
       <c r="R199" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S199" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T199" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.25">
@@ -12416,7 +12424,7 @@
         <v>0</v>
       </c>
       <c r="E200" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F200" s="18">
         <v>0</v>
@@ -12452,13 +12460,13 @@
         <v>-42.759222000000001</v>
       </c>
       <c r="R200" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S200" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T200" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.25">
@@ -12511,13 +12519,13 @@
         <v>-40.823667</v>
       </c>
       <c r="R201" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S201" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T201" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.25">
@@ -12570,13 +12578,13 @@
         <v>-42.809806000000002</v>
       </c>
       <c r="R202" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S202" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T202" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.25">
@@ -12629,13 +12637,13 @@
         <v>-40.953916999999997</v>
       </c>
       <c r="R203" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S203" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T203" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.25">
@@ -12688,13 +12696,13 @@
         <v>-40.871527999999998</v>
       </c>
       <c r="R204" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S204" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T204" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.25">
@@ -12747,13 +12755,13 @@
         <v>-40.812677999999998</v>
       </c>
       <c r="R205" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S205" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T205" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.25">
@@ -12806,13 +12814,13 @@
         <v>-37.1</v>
       </c>
       <c r="R206" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S206" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T206" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.25">
@@ -12865,13 +12873,13 @@
         <v>-35.191056000000003</v>
       </c>
       <c r="R207" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S207" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T207" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.25">
@@ -12924,13 +12932,13 @@
         <v>-35.231527999999997</v>
       </c>
       <c r="R208" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S208" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T208" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.25">
@@ -12947,7 +12955,7 @@
         <v>0</v>
       </c>
       <c r="E209" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F209" s="18">
         <v>0</v>
@@ -12983,13 +12991,13 @@
         <v>-35.255749999999999</v>
       </c>
       <c r="R209" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S209" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T209" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.25">
@@ -13042,13 +13050,13 @@
         <v>-35.240028000000002</v>
       </c>
       <c r="R210" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S210" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T210" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.25">
@@ -13101,13 +13109,13 @@
         <v>-39.297083000000001</v>
       </c>
       <c r="R211" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S211" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T211" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.25">
@@ -13160,13 +13168,13 @@
         <v>-35.201472000000003</v>
       </c>
       <c r="R212" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S212" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T212" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.25">
@@ -13219,13 +13227,13 @@
         <v>-35.205581000000002</v>
       </c>
       <c r="R213" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S213" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T213" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.25">
@@ -13278,13 +13286,13 @@
         <v>-35.221249999999998</v>
       </c>
       <c r="R214" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S214" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T214" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.25">
@@ -13301,7 +13309,7 @@
         <v>0</v>
       </c>
       <c r="E215" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F215" s="18">
         <v>0</v>
@@ -13337,13 +13345,13 @@
         <v>-35.208167000000003</v>
       </c>
       <c r="R215" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S215" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T215" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.25">
@@ -13396,13 +13404,13 @@
         <v>-35.230389000000002</v>
       </c>
       <c r="R216" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S216" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T216" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.25">
@@ -13455,13 +13463,13 @@
         <v>-38.073909</v>
       </c>
       <c r="R217" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S217" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T217" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.25">
@@ -13514,13 +13522,13 @@
         <v>-38.660860999999997</v>
       </c>
       <c r="R218" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S218" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T218" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.25">
@@ -13573,13 +13581,13 @@
         <v>-38.361649999999997</v>
       </c>
       <c r="R219" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S219" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T219" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.25">
@@ -13632,13 +13640,13 @@
         <v>-39.03145</v>
       </c>
       <c r="R220" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S220" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T220" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.25">
@@ -13691,13 +13699,13 @@
         <v>-38.394753000000001</v>
       </c>
       <c r="R221" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S221" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T221" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.25">
@@ -13750,13 +13758,13 @@
         <v>-38.390749999999997</v>
       </c>
       <c r="R222" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S222" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T222" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.25">
@@ -13809,13 +13817,13 @@
         <v>-35.298333</v>
       </c>
       <c r="R223" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S223" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T223" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.25">
@@ -13868,13 +13876,13 @@
         <v>-36.625777999999997</v>
       </c>
       <c r="R224" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S224" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T224" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.25">
@@ -13927,13 +13935,13 @@
         <v>-38.562972000000002</v>
       </c>
       <c r="R225" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S225" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T225" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.25">
@@ -13950,7 +13958,7 @@
         <v>0</v>
       </c>
       <c r="E226" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F226" s="18">
         <v>0</v>
@@ -13986,13 +13994,13 @@
         <v>-36.649082999999997</v>
       </c>
       <c r="R226" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S226" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T226" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.25">
@@ -14045,13 +14053,13 @@
         <v>-35.717666999999999</v>
       </c>
       <c r="R227" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S227" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T227" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.25">
@@ -14104,13 +14112,13 @@
         <v>-35.777500000000003</v>
       </c>
       <c r="R228" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S228" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T228" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.25">
@@ -14163,13 +14171,13 @@
         <v>-35.742055999999998</v>
       </c>
       <c r="R229" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S229" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T229" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.25">
@@ -14222,13 +14230,13 @@
         <v>-35.744777999999997</v>
       </c>
       <c r="R230" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S230" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T230" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.25">
@@ -14281,13 +14289,13 @@
         <v>-35.689582999999999</v>
       </c>
       <c r="R231" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S231" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T231" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.25">
@@ -14304,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E232" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F232" s="18">
         <v>0</v>
@@ -14340,13 +14348,13 @@
         <v>-35.757111000000002</v>
       </c>
       <c r="R232" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S232" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T232" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.25">
@@ -14399,13 +14407,13 @@
         <v>-35.786777999999998</v>
       </c>
       <c r="R233" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S233" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T233" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.25">
@@ -14458,13 +14466,13 @@
         <v>-35.774527999999997</v>
       </c>
       <c r="R234" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S234" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T234" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.25">
@@ -14481,7 +14489,7 @@
         <v>0</v>
       </c>
       <c r="E235" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F235" s="18">
         <v>0</v>
@@ -14517,13 +14525,13 @@
         <v>-35.770221999999997</v>
       </c>
       <c r="R235" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S235" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T235" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.25">
@@ -14540,7 +14548,7 @@
         <v>0</v>
       </c>
       <c r="E236" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F236" s="18">
         <v>0</v>
@@ -14576,13 +14584,13 @@
         <v>-39.269472</v>
       </c>
       <c r="R236" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S236" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T236" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.25">
@@ -14635,13 +14643,13 @@
         <v>-38.097527999999997</v>
       </c>
       <c r="R237" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S237" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T237" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.25">
@@ -14658,7 +14666,7 @@
         <v>0</v>
       </c>
       <c r="E238" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F238" s="18">
         <v>1</v>
@@ -14694,13 +14702,13 @@
         <v>-40.744444000000001</v>
       </c>
       <c r="R238" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S238" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T238" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.25">
@@ -14753,13 +14761,13 @@
         <v>-34.834527999999999</v>
       </c>
       <c r="R239" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S239" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T239" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.25">
@@ -14812,13 +14820,13 @@
         <v>-34.876666999999998</v>
       </c>
       <c r="R240" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S240" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T240" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.25">
@@ -14871,13 +14879,13 @@
         <v>-34.841943999999998</v>
       </c>
       <c r="R241" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S241" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T241" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.25">
@@ -14930,13 +14938,13 @@
         <v>-34.842416999999998</v>
       </c>
       <c r="R242" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S242" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T242" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.25">
@@ -14989,13 +14997,13 @@
         <v>-34.836582999999997</v>
       </c>
       <c r="R243" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S243" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T243" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.25">
@@ -15048,13 +15056,13 @@
         <v>-38.418610999999999</v>
       </c>
       <c r="R244" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S244" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T244" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.25">
@@ -15071,7 +15079,7 @@
         <v>0</v>
       </c>
       <c r="E245" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F245" s="18">
         <v>0</v>
@@ -15107,13 +15115,13 @@
         <v>-38.901443999999998</v>
       </c>
       <c r="R245" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S245" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T245" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.25">
@@ -15130,7 +15138,7 @@
         <v>0</v>
       </c>
       <c r="E246" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F246" s="18">
         <v>0</v>
@@ -15166,13 +15174,13 @@
         <v>-40.313639000000002</v>
       </c>
       <c r="R246" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S246" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T246" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.25">
@@ -15225,13 +15233,13 @@
         <v>-40.302528000000002</v>
       </c>
       <c r="R247" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S247" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T247" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.25">
@@ -15284,13 +15292,13 @@
         <v>-38.755333</v>
       </c>
       <c r="R248" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S248" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T248" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.25">
@@ -15343,13 +15351,13 @@
         <v>-38.754575000000003</v>
       </c>
       <c r="R249" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S249" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T249" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.25">
@@ -15402,13 +15410,13 @@
         <v>-39.570028000000001</v>
       </c>
       <c r="R250" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S250" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T250" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.25">
@@ -15461,13 +15469,13 @@
         <v>-38.788083</v>
       </c>
       <c r="R251" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S251" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T251" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.25">
@@ -15520,13 +15528,13 @@
         <v>-39.907083</v>
       </c>
       <c r="R252" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S252" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T252" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.25">
@@ -15579,13 +15587,13 @@
         <v>-39.08</v>
       </c>
       <c r="R253" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S253" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T253" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.25">
@@ -15638,13 +15646,13 @@
         <v>-38.443221999999999</v>
       </c>
       <c r="R254" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S254" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T254" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.25">
@@ -15697,13 +15705,13 @@
         <v>-38.880639000000002</v>
       </c>
       <c r="R255" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S255" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T255" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.25">
@@ -15756,13 +15764,13 @@
         <v>-40.067556000000003</v>
       </c>
       <c r="R256" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S256" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T256" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.25">
@@ -15815,13 +15823,13 @@
         <v>-39.124721999999998</v>
       </c>
       <c r="R257" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S257" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T257" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.25">
@@ -15874,13 +15882,13 @@
         <v>-38.968778</v>
       </c>
       <c r="R258" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S258" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T258" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.25">
@@ -15897,7 +15905,7 @@
         <v>0</v>
       </c>
       <c r="E259" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F259" s="18">
         <v>0</v>
@@ -15933,13 +15941,13 @@
         <v>-40.502167</v>
       </c>
       <c r="R259" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S259" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T259" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.25">
@@ -15992,13 +16000,13 @@
         <v>-40.501167000000002</v>
       </c>
       <c r="R260" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S260" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T260" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.25">
@@ -16051,13 +16059,13 @@
         <v>-40.508194000000003</v>
       </c>
       <c r="R261" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S261" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T261" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.25">
@@ -16110,13 +16118,13 @@
         <v>-39.662182999999999</v>
       </c>
       <c r="R262" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S262" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T262" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.25">
@@ -16169,13 +16177,13 @@
         <v>-39.186610999999999</v>
       </c>
       <c r="R263" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S263" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T263" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.25">
@@ -16228,13 +16236,13 @@
         <v>-38.75</v>
       </c>
       <c r="R264" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S264" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T264" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.25">
@@ -16287,13 +16295,13 @@
         <v>-39.654060999999999</v>
       </c>
       <c r="R265" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S265" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T265" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.25">
@@ -16346,13 +16354,13 @@
         <v>-40.145028000000003</v>
       </c>
       <c r="R266" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S266" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T266" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.25">
@@ -16405,13 +16413,13 @@
         <v>-39.566333</v>
       </c>
       <c r="R267" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S267" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T267" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.25">
@@ -16464,13 +16472,13 @@
         <v>-40.3339</v>
       </c>
       <c r="R268" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S268" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T268" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.25">
@@ -16523,13 +16531,13 @@
         <v>-37.919832999999997</v>
       </c>
       <c r="R269" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S269" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T269" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.25">
@@ -16582,13 +16590,13 @@
         <v>-39.634472000000002</v>
       </c>
       <c r="R270" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S270" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T270" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.25">
@@ -16605,7 +16613,7 @@
         <v>0</v>
       </c>
       <c r="E271" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F271" s="18">
         <v>0</v>
@@ -16641,13 +16649,13 @@
         <v>-38.960749999999997</v>
       </c>
       <c r="R271" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S271" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T271" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="272" spans="1:20" x14ac:dyDescent="0.25">
@@ -16700,13 +16708,13 @@
         <v>-38.913694</v>
       </c>
       <c r="R272" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S272" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T272" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="273" spans="1:20" x14ac:dyDescent="0.25">
@@ -16723,7 +16731,7 @@
         <v>0</v>
       </c>
       <c r="E273" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F273" s="18">
         <v>0</v>
@@ -16759,13 +16767,13 @@
         <v>-38.941777999999999</v>
       </c>
       <c r="R273" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S273" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T273" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.25">
@@ -16818,13 +16826,13 @@
         <v>-38.944611000000002</v>
       </c>
       <c r="R274" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S274" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T274" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.25">
@@ -16877,13 +16885,13 @@
         <v>-39.059944000000002</v>
       </c>
       <c r="R275" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S275" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T275" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="276" spans="1:20" x14ac:dyDescent="0.25">
@@ -16936,13 +16944,13 @@
         <v>-40.311667</v>
       </c>
       <c r="R276" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S276" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T276" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="277" spans="1:20" x14ac:dyDescent="0.25">
@@ -16995,13 +17003,13 @@
         <v>-38.216889000000002</v>
       </c>
       <c r="R277" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S277" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T277" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.25">
@@ -17054,13 +17062,13 @@
         <v>-38.219917000000002</v>
       </c>
       <c r="R278" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S278" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T278" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="279" spans="1:20" x14ac:dyDescent="0.25">
@@ -17077,7 +17085,7 @@
         <v>0</v>
       </c>
       <c r="E279" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F279" s="18">
         <v>0</v>
@@ -17113,13 +17121,13 @@
         <v>-38.943221999999999</v>
       </c>
       <c r="R279" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S279" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T279" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="280" spans="1:20" x14ac:dyDescent="0.25">
@@ -17172,13 +17180,13 @@
         <v>-45.001389000000003</v>
       </c>
       <c r="R280" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S280" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T280" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="281" spans="1:20" x14ac:dyDescent="0.25">
@@ -17231,13 +17239,13 @@
         <v>-38.986944000000001</v>
       </c>
       <c r="R281" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S281" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T281" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="282" spans="1:20" x14ac:dyDescent="0.25">
@@ -17290,13 +17298,13 @@
         <v>-41.772193999999999</v>
       </c>
       <c r="R282" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S282" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T282" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="283" spans="1:20" x14ac:dyDescent="0.25">
@@ -17349,13 +17357,13 @@
         <v>-39.082166999999998</v>
       </c>
       <c r="R283" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S283" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T283" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="284" spans="1:20" x14ac:dyDescent="0.25">
@@ -17408,13 +17416,13 @@
         <v>-38.216889000000002</v>
       </c>
       <c r="R284" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S284" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T284" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="285" spans="1:20" x14ac:dyDescent="0.25">
@@ -17467,13 +17475,13 @@
         <v>-38.219917000000002</v>
       </c>
       <c r="R285" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S285" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T285" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.25">
@@ -17526,13 +17534,13 @@
         <v>-39.526111</v>
       </c>
       <c r="R286" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S286" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T286" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="287" spans="1:20" x14ac:dyDescent="0.25">
@@ -17585,13 +17593,13 @@
         <v>-38.883583000000002</v>
       </c>
       <c r="R287" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S287" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T287" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="288" spans="1:20" x14ac:dyDescent="0.25">
@@ -17644,13 +17652,13 @@
         <v>-37.948777999999997</v>
       </c>
       <c r="R288" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S288" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T288" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.25">
@@ -17667,7 +17675,7 @@
         <v>0</v>
       </c>
       <c r="E289" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F289" s="18">
         <v>0</v>
@@ -17703,13 +17711,13 @@
         <v>-39.123055999999998</v>
       </c>
       <c r="R289" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S289" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T289" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="290" spans="1:20" x14ac:dyDescent="0.25">
@@ -17762,13 +17770,13 @@
         <v>-39.185611000000002</v>
       </c>
       <c r="R290" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S290" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T290" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="291" spans="1:20" x14ac:dyDescent="0.25">
@@ -17785,7 +17793,7 @@
         <v>0</v>
       </c>
       <c r="E291" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F291" s="18">
         <v>0</v>
@@ -17821,13 +17829,13 @@
         <v>-39.108750000000001</v>
       </c>
       <c r="R291" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S291" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T291" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.25">
@@ -17880,13 +17888,13 @@
         <v>-38.225833000000002</v>
       </c>
       <c r="R292" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S292" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T292" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.25">
@@ -17939,13 +17947,13 @@
         <v>-38.509861000000001</v>
       </c>
       <c r="R293" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S293" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T293" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="294" spans="1:20" x14ac:dyDescent="0.25">
@@ -17962,7 +17970,7 @@
         <v>0</v>
       </c>
       <c r="E294" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F294" s="18">
         <v>0</v>
@@ -17998,13 +18006,13 @@
         <v>-38.747889000000001</v>
       </c>
       <c r="R294" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S294" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T294" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="295" spans="1:20" x14ac:dyDescent="0.25">
@@ -18057,13 +18065,13 @@
         <v>-38.810138999999999</v>
       </c>
       <c r="R295" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S295" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T295" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.25">
@@ -18116,13 +18124,13 @@
         <v>-39.104139000000004</v>
       </c>
       <c r="R296" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S296" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T296" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="297" spans="1:20" x14ac:dyDescent="0.25">
@@ -18175,13 +18183,13 @@
         <v>-39.013610999999997</v>
       </c>
       <c r="R297" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S297" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T297" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="298" spans="1:20" x14ac:dyDescent="0.25">
@@ -18234,13 +18242,13 @@
         <v>-39.726388999999998</v>
       </c>
       <c r="R298" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S298" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T298" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="299" spans="1:20" x14ac:dyDescent="0.25">
@@ -18257,7 +18265,7 @@
         <v>0</v>
       </c>
       <c r="E299" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F299" s="18">
         <v>0</v>
@@ -18293,13 +18301,13 @@
         <v>-39.714778000000003</v>
       </c>
       <c r="R299" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S299" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T299" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.25">
@@ -18352,13 +18360,13 @@
         <v>-39.759056000000001</v>
       </c>
       <c r="R300" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S300" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T300" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="301" spans="1:20" x14ac:dyDescent="0.25">
@@ -18411,13 +18419,13 @@
         <v>-39.970832999999999</v>
       </c>
       <c r="R301" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S301" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T301" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="302" spans="1:20" x14ac:dyDescent="0.25">
@@ -18470,13 +18478,13 @@
         <v>-38.727611000000003</v>
       </c>
       <c r="R302" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S302" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T302" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="303" spans="1:20" x14ac:dyDescent="0.25">
@@ -18529,13 +18537,13 @@
         <v>-38.624527999999998</v>
       </c>
       <c r="R303" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S303" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T303" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="304" spans="1:20" x14ac:dyDescent="0.25">
@@ -18552,7 +18560,7 @@
         <v>0</v>
       </c>
       <c r="E304" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F304" s="18">
         <v>0</v>
@@ -18588,13 +18596,13 @@
         <v>-38.636611000000002</v>
       </c>
       <c r="R304" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S304" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T304" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="305" spans="1:20" x14ac:dyDescent="0.25">
@@ -18611,7 +18619,7 @@
         <v>0</v>
       </c>
       <c r="E305" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F305" s="18">
         <v>0</v>
@@ -18647,13 +18655,13 @@
         <v>-39.587583000000002</v>
       </c>
       <c r="R305" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S305" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T305" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="306" spans="1:20" x14ac:dyDescent="0.25">
@@ -18706,13 +18714,13 @@
         <v>-39.03575</v>
       </c>
       <c r="R306" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S306" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T306" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="307" spans="1:20" x14ac:dyDescent="0.25">
@@ -18765,13 +18773,13 @@
         <v>-39.008333</v>
       </c>
       <c r="R307" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S307" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T307" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="308" spans="1:20" x14ac:dyDescent="0.25">
@@ -18788,7 +18796,7 @@
         <v>0</v>
       </c>
       <c r="E308" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F308" s="18">
         <v>0</v>
@@ -18824,13 +18832,13 @@
         <v>-39.065860999999998</v>
       </c>
       <c r="R308" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S308" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T308" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="309" spans="1:20" x14ac:dyDescent="0.25">
@@ -18883,13 +18891,13 @@
         <v>-39.002000000000002</v>
       </c>
       <c r="R309" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S309" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T309" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="310" spans="1:20" x14ac:dyDescent="0.25">
@@ -18942,13 +18950,13 @@
         <v>-38.43</v>
       </c>
       <c r="R310" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S310" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T310" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="311" spans="1:20" x14ac:dyDescent="0.25">
@@ -19001,13 +19009,13 @@
         <v>-39.036360999999999</v>
       </c>
       <c r="R311" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S311" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T311" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="312" spans="1:20" x14ac:dyDescent="0.25">
@@ -19060,13 +19068,13 @@
         <v>-39.076166999999998</v>
       </c>
       <c r="R312" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S312" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T312" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="313" spans="1:20" x14ac:dyDescent="0.25">
@@ -19119,13 +19127,13 @@
         <v>-40.096666999999997</v>
       </c>
       <c r="R313" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S313" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T313" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="314" spans="1:20" x14ac:dyDescent="0.25">
@@ -19178,13 +19186,13 @@
         <v>-39.274138999999998</v>
       </c>
       <c r="R314" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S314" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T314" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="315" spans="1:20" x14ac:dyDescent="0.25">
@@ -19237,13 +19245,13 @@
         <v>-39.089221999999999</v>
       </c>
       <c r="R315" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S315" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T315" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="316" spans="1:20" x14ac:dyDescent="0.25">
@@ -19296,13 +19304,13 @@
         <v>-34.897778000000002</v>
       </c>
       <c r="R316" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S316" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T316" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="317" spans="1:20" x14ac:dyDescent="0.25">
@@ -19355,13 +19363,13 @@
         <v>-35.253332999999998</v>
       </c>
       <c r="R317" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S317" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T317" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="318" spans="1:20" x14ac:dyDescent="0.25">
@@ -19414,13 +19422,13 @@
         <v>-35.256250000000001</v>
       </c>
       <c r="R318" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S318" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T318" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="319" spans="1:20" x14ac:dyDescent="0.25">
@@ -19473,13 +19481,13 @@
         <v>-40.877139</v>
       </c>
       <c r="R319" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S319" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T319" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="320" spans="1:20" x14ac:dyDescent="0.25">
@@ -19532,13 +19540,13 @@
         <v>-40.836055999999999</v>
       </c>
       <c r="R320" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S320" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T320" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="321" spans="1:20" x14ac:dyDescent="0.25">
@@ -19591,13 +19599,13 @@
         <v>-40.870528</v>
       </c>
       <c r="R321" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S321" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T321" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="322" spans="1:20" x14ac:dyDescent="0.25">
@@ -19650,13 +19658,13 @@
         <v>-40.811194</v>
       </c>
       <c r="R322" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S322" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T322" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="323" spans="1:20" x14ac:dyDescent="0.25">
@@ -19709,13 +19717,13 @@
         <v>-40.765444000000002</v>
       </c>
       <c r="R323" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S323" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T323" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="324" spans="1:20" x14ac:dyDescent="0.25">
@@ -19768,13 +19776,13 @@
         <v>-37.072249999999997</v>
       </c>
       <c r="R324" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S324" s="18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="T324" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="325" spans="1:20" x14ac:dyDescent="0.25">
@@ -19827,13 +19835,13 @@
         <v>-40.891027999999999</v>
       </c>
       <c r="R325" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S325" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T325" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="326" spans="1:20" x14ac:dyDescent="0.25">
@@ -19886,13 +19894,13 @@
         <v>-40.841110999999998</v>
       </c>
       <c r="R326" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S326" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T326" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="327" spans="1:20" x14ac:dyDescent="0.25">
@@ -19945,13 +19953,13 @@
         <v>-38.483832999999997</v>
       </c>
       <c r="R327" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S327" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T327" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="328" spans="1:20" x14ac:dyDescent="0.25">
@@ -19968,7 +19976,7 @@
         <v>0</v>
       </c>
       <c r="E328" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F328" s="18">
         <v>0</v>
@@ -20004,13 +20012,13 @@
         <v>-38.526583000000002</v>
       </c>
       <c r="R328" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S328" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T328" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="329" spans="1:20" x14ac:dyDescent="0.25">
@@ -20027,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="E329" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F329" s="18">
         <v>0</v>
@@ -20063,13 +20071,13 @@
         <v>-38.475194000000002</v>
       </c>
       <c r="R329" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S329" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T329" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="330" spans="1:20" x14ac:dyDescent="0.25">
@@ -20122,13 +20130,13 @@
         <v>-38.439402999999999</v>
       </c>
       <c r="R330" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S330" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T330" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="331" spans="1:20" x14ac:dyDescent="0.25">
@@ -20181,13 +20189,13 @@
         <v>-38.426250000000003</v>
       </c>
       <c r="R331" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S331" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T331" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="332" spans="1:20" x14ac:dyDescent="0.25">
@@ -20240,13 +20248,13 @@
         <v>-38.455278</v>
       </c>
       <c r="R332" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S332" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T332" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="333" spans="1:20" x14ac:dyDescent="0.25">
@@ -20299,13 +20307,13 @@
         <v>-38.556193999999998</v>
       </c>
       <c r="R333" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S333" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T333" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="334" spans="1:20" x14ac:dyDescent="0.25">
@@ -20358,13 +20366,13 @@
         <v>-39.321610999999997</v>
       </c>
       <c r="R334" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S334" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T334" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="335" spans="1:20" x14ac:dyDescent="0.25">
@@ -20417,13 +20425,13 @@
         <v>-38.387816999999998</v>
       </c>
       <c r="R335" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S335" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T335" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="336" spans="1:20" x14ac:dyDescent="0.25">
@@ -20476,13 +20484,13 @@
         <v>-38.401611000000003</v>
       </c>
       <c r="R336" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S336" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T336" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="337" spans="1:20" x14ac:dyDescent="0.25">
@@ -20535,13 +20543,13 @@
         <v>-38.514467000000003</v>
       </c>
       <c r="R337" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S337" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T337" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="338" spans="1:20" x14ac:dyDescent="0.25">
@@ -20594,13 +20602,13 @@
         <v>-38.454166999999998</v>
       </c>
       <c r="R338" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S338" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T338" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="339" spans="1:20" x14ac:dyDescent="0.25">
@@ -20653,13 +20661,13 @@
         <v>-38.543889</v>
       </c>
       <c r="R339" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S339" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T339" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="340" spans="1:20" x14ac:dyDescent="0.25">
@@ -20676,7 +20684,7 @@
         <v>0</v>
       </c>
       <c r="E340" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F340" s="18">
         <v>0</v>
@@ -20712,13 +20720,13 @@
         <v>-38.559277999999999</v>
       </c>
       <c r="R340" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S340" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T340" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="341" spans="1:20" x14ac:dyDescent="0.25">
@@ -20771,13 +20779,13 @@
         <v>-38.545805999999999</v>
       </c>
       <c r="R341" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S341" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T341" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="342" spans="1:20" x14ac:dyDescent="0.25">
@@ -20830,13 +20838,13 @@
         <v>-38.474389000000002</v>
       </c>
       <c r="R342" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S342" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T342" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="343" spans="1:20" x14ac:dyDescent="0.25">
@@ -20853,7 +20861,7 @@
         <v>0</v>
       </c>
       <c r="E343" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F343" s="18">
         <v>0</v>
@@ -20889,13 +20897,13 @@
         <v>-35.905861000000002</v>
       </c>
       <c r="R343" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S343" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T343" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="344" spans="1:20" x14ac:dyDescent="0.25">
@@ -20948,13 +20956,13 @@
         <v>-34.828055999999997</v>
       </c>
       <c r="R344" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S344" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T344" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="345" spans="1:20" x14ac:dyDescent="0.25">
@@ -21007,13 +21015,13 @@
         <v>-34.89725</v>
       </c>
       <c r="R345" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S345" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T345" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="346" spans="1:20" x14ac:dyDescent="0.25">
@@ -21066,13 +21074,13 @@
         <v>-35.354166999999997</v>
       </c>
       <c r="R346" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S346" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T346" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="347" spans="1:20" x14ac:dyDescent="0.25">
@@ -21125,13 +21133,13 @@
         <v>-34.832250000000002</v>
       </c>
       <c r="R347" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S347" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T347" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="348" spans="1:20" x14ac:dyDescent="0.25">
@@ -21184,13 +21192,13 @@
         <v>-34.878166999999998</v>
       </c>
       <c r="R348" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S348" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T348" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="349" spans="1:20" x14ac:dyDescent="0.25">
@@ -21243,13 +21251,13 @@
         <v>-34.861499999999999</v>
       </c>
       <c r="R349" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S349" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T349" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="350" spans="1:20" x14ac:dyDescent="0.25">
@@ -21302,13 +21310,13 @@
         <v>-37.364750000000001</v>
       </c>
       <c r="R350" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S350" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T350" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="351" spans="1:20" x14ac:dyDescent="0.25">
@@ -21325,7 +21333,7 @@
         <v>0</v>
       </c>
       <c r="E351" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F351" s="18">
         <v>0</v>
@@ -21361,13 +21369,13 @@
         <v>-34.847472000000003</v>
       </c>
       <c r="R351" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S351" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T351" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="352" spans="1:20" x14ac:dyDescent="0.25">
@@ -21420,13 +21428,13 @@
         <v>-34.893028000000001</v>
       </c>
       <c r="R352" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S352" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T352" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="353" spans="1:20" x14ac:dyDescent="0.25">
@@ -21479,13 +21487,13 @@
         <v>-37.340527999999999</v>
       </c>
       <c r="R353" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S353" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T353" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="354" spans="1:20" x14ac:dyDescent="0.25">
@@ -21538,13 +21546,13 @@
         <v>-37.345444000000001</v>
       </c>
       <c r="R354" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S354" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T354" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="355" spans="1:20" x14ac:dyDescent="0.25">
@@ -21597,13 +21605,13 @@
         <v>-38.563361</v>
       </c>
       <c r="R355" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S355" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T355" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="356" spans="1:20" x14ac:dyDescent="0.25">
@@ -21656,13 +21664,13 @@
         <v>-34.849277999999998</v>
       </c>
       <c r="R356" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S356" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T356" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="357" spans="1:20" x14ac:dyDescent="0.25">
@@ -21715,13 +21723,13 @@
         <v>-36.916694</v>
       </c>
       <c r="R357" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S357" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T357" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="358" spans="1:20" x14ac:dyDescent="0.25">
@@ -21774,13 +21782,13 @@
         <v>-34.832250000000002</v>
       </c>
       <c r="R358" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S358" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T358" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="359" spans="1:20" x14ac:dyDescent="0.25">
@@ -21833,13 +21841,13 @@
         <v>-34.819468999999998</v>
       </c>
       <c r="R359" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S359" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T359" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="360" spans="1:20" x14ac:dyDescent="0.25">
@@ -21892,13 +21900,13 @@
         <v>-36.981777999999998</v>
       </c>
       <c r="R360" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S360" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T360" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="361" spans="1:20" x14ac:dyDescent="0.25">
@@ -21951,13 +21959,13 @@
         <v>-35.183889000000001</v>
       </c>
       <c r="R361" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S361" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T361" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="362" spans="1:20" x14ac:dyDescent="0.25">
@@ -22010,13 +22018,13 @@
         <v>-35.246693999999998</v>
       </c>
       <c r="R362" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S362" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T362" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="363" spans="1:20" x14ac:dyDescent="0.25">
@@ -22069,13 +22077,13 @@
         <v>-34.815556000000001</v>
       </c>
       <c r="R363" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S363" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T363" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="364" spans="1:20" x14ac:dyDescent="0.25">
@@ -22128,13 +22136,13 @@
         <v>-35.172006000000003</v>
       </c>
       <c r="R364" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S364" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T364" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="365" spans="1:20" x14ac:dyDescent="0.25">
@@ -22187,13 +22195,13 @@
         <v>-34.939749999999997</v>
       </c>
       <c r="R365" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S365" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T365" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="366" spans="1:20" x14ac:dyDescent="0.25">
@@ -22246,13 +22254,13 @@
         <v>-34.846972000000001</v>
       </c>
       <c r="R366" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S366" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T366" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="367" spans="1:20" x14ac:dyDescent="0.25">
@@ -22305,13 +22313,13 @@
         <v>-34.842500000000001</v>
       </c>
       <c r="R367" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S367" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T367" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="368" spans="1:20" x14ac:dyDescent="0.25">
@@ -22364,13 +22372,13 @@
         <v>-34.901806000000001</v>
       </c>
       <c r="R368" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S368" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T368" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="369" spans="1:20" x14ac:dyDescent="0.25">
@@ -22423,13 +22431,13 @@
         <v>-34.799194</v>
       </c>
       <c r="R369" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S369" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T369" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="370" spans="1:20" x14ac:dyDescent="0.25">
@@ -22482,13 +22490,13 @@
         <v>-34.812806000000002</v>
       </c>
       <c r="R370" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S370" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T370" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="371" spans="1:20" x14ac:dyDescent="0.25">
@@ -22541,13 +22549,13 @@
         <v>-35.196666999999998</v>
       </c>
       <c r="R371" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S371" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T371" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="372" spans="1:20" x14ac:dyDescent="0.25">
@@ -22600,13 +22608,13 @@
         <v>-35.238610999999999</v>
       </c>
       <c r="R372" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S372" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T372" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="373" spans="1:20" x14ac:dyDescent="0.25">
@@ -22659,13 +22667,13 @@
         <v>-34.842500000000001</v>
       </c>
       <c r="R373" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S373" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T373" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="374" spans="1:20" x14ac:dyDescent="0.25">
@@ -22718,13 +22726,13 @@
         <v>-34.875</v>
       </c>
       <c r="R374" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S374" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T374" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="375" spans="1:20" x14ac:dyDescent="0.25">
@@ -22741,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="E375" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F375" s="18">
         <v>0</v>
@@ -22777,13 +22785,13 @@
         <v>-34.827221999999999</v>
       </c>
       <c r="R375" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S375" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T375" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="376" spans="1:20" x14ac:dyDescent="0.25">
@@ -22836,13 +22844,13 @@
         <v>-34.864193999999998</v>
       </c>
       <c r="R376" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S376" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T376" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="377" spans="1:20" x14ac:dyDescent="0.25">
@@ -22859,7 +22867,7 @@
         <v>0</v>
       </c>
       <c r="E377" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F377" s="18">
         <v>0</v>
@@ -22895,13 +22903,13 @@
         <v>-35.206861000000004</v>
       </c>
       <c r="R377" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S377" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T377" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="378" spans="1:20" x14ac:dyDescent="0.25">
@@ -22954,13 +22962,13 @@
         <v>-35.234222000000003</v>
       </c>
       <c r="R378" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S378" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T378" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="379" spans="1:20" x14ac:dyDescent="0.25">
@@ -23013,13 +23021,13 @@
         <v>-35.201667</v>
       </c>
       <c r="R379" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S379" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T379" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="380" spans="1:20" x14ac:dyDescent="0.25">
@@ -23072,13 +23080,13 @@
         <v>-34.894472</v>
       </c>
       <c r="R380" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S380" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T380" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="381" spans="1:20" x14ac:dyDescent="0.25">
@@ -23131,13 +23139,13 @@
         <v>-35.204360999999999</v>
       </c>
       <c r="R381" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S381" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T381" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="382" spans="1:20" x14ac:dyDescent="0.25">
@@ -23190,13 +23198,13 @@
         <v>-35.908332999999999</v>
       </c>
       <c r="R382" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S382" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T382" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="383" spans="1:20" x14ac:dyDescent="0.25">
@@ -23249,13 +23257,13 @@
         <v>-34.882944000000002</v>
       </c>
       <c r="R383" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S383" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T383" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="384" spans="1:20" x14ac:dyDescent="0.25">
@@ -23308,13 +23316,13 @@
         <v>-34.887222000000001</v>
       </c>
       <c r="R384" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S384" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T384" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="385" spans="1:20" x14ac:dyDescent="0.25">
@@ -23367,13 +23375,13 @@
         <v>-34.857388999999998</v>
       </c>
       <c r="R385" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S385" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T385" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="386" spans="1:20" x14ac:dyDescent="0.25">
@@ -23390,7 +23398,7 @@
         <v>0</v>
       </c>
       <c r="E386" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F386" s="18">
         <v>0</v>
@@ -23426,13 +23434,13 @@
         <v>-34.859833000000002</v>
       </c>
       <c r="R386" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S386" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T386" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="387" spans="1:20" x14ac:dyDescent="0.25">
@@ -23485,13 +23493,13 @@
         <v>-35.279860999999997</v>
       </c>
       <c r="R387" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S387" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T387" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="388" spans="1:20" x14ac:dyDescent="0.25">
@@ -23544,13 +23552,13 @@
         <v>-42.813277999999997</v>
       </c>
       <c r="R388" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S388" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T388" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="389" spans="1:20" x14ac:dyDescent="0.25">
@@ -23603,13 +23611,13 @@
         <v>-42.808889000000001</v>
       </c>
       <c r="R389" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S389" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T389" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="390" spans="1:20" x14ac:dyDescent="0.25">
@@ -23626,7 +23634,7 @@
         <v>0</v>
       </c>
       <c r="E390" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F390" s="18">
         <v>0</v>
@@ -23662,13 +23670,13 @@
         <v>-42.736666999999997</v>
       </c>
       <c r="R390" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S390" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T390" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="391" spans="1:20" x14ac:dyDescent="0.25">
@@ -23721,13 +23729,13 @@
         <v>-42.832693999999996</v>
       </c>
       <c r="R391" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S391" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T391" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="392" spans="1:20" x14ac:dyDescent="0.25">
@@ -23780,13 +23788,13 @@
         <v>-37.773916999999997</v>
       </c>
       <c r="R392" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S392" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T392" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="393" spans="1:20" x14ac:dyDescent="0.25">
@@ -23839,13 +23847,13 @@
         <v>-39.297443999999999</v>
       </c>
       <c r="R393" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S393" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T393" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="394" spans="1:20" x14ac:dyDescent="0.25">
@@ -23898,13 +23906,13 @@
         <v>-41.001417000000004</v>
       </c>
       <c r="R394" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S394" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T394" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="395" spans="1:20" x14ac:dyDescent="0.25">
@@ -23957,13 +23965,13 @@
         <v>-42.764721999999999</v>
       </c>
       <c r="R395" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S395" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T395" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="396" spans="1:20" x14ac:dyDescent="0.25">
@@ -24016,13 +24024,13 @@
         <v>-39.301971999999999</v>
       </c>
       <c r="R396" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S396" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T396" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="397" spans="1:20" x14ac:dyDescent="0.25">
@@ -24075,13 +24083,13 @@
         <v>-38.098193999999999</v>
       </c>
       <c r="R397" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S397" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T397" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="398" spans="1:20" x14ac:dyDescent="0.25">
@@ -24134,13 +24142,13 @@
         <v>-42.784694000000002</v>
       </c>
       <c r="R398" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S398" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T398" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="399" spans="1:20" x14ac:dyDescent="0.25">
@@ -24193,13 +24201,13 @@
         <v>-42.786642000000001</v>
       </c>
       <c r="R399" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S399" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T399" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="400" spans="1:20" x14ac:dyDescent="0.25">
@@ -24252,13 +24260,13 @@
         <v>-37.356361</v>
       </c>
       <c r="R400" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S400" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T400" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="401" spans="1:20" x14ac:dyDescent="0.25">
@@ -24311,13 +24319,13 @@
         <v>-42.776916999999997</v>
       </c>
       <c r="R401" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S401" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T401" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="402" spans="1:20" x14ac:dyDescent="0.25">
@@ -24334,7 +24342,7 @@
         <v>0</v>
       </c>
       <c r="E402" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F402" s="18">
         <v>0</v>
@@ -24370,13 +24378,13 @@
         <v>-40.534972000000003</v>
       </c>
       <c r="R402" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S402" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T402" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="403" spans="1:20" x14ac:dyDescent="0.25">
@@ -24429,13 +24437,13 @@
         <v>-39.718639000000003</v>
       </c>
       <c r="R403" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S403" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T403" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="404" spans="1:20" x14ac:dyDescent="0.25">
@@ -24452,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="E404" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F404" s="18">
         <v>0</v>
@@ -24488,13 +24496,13 @@
         <v>-42.755555999999999</v>
       </c>
       <c r="R404" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S404" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T404" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="405" spans="1:20" x14ac:dyDescent="0.25">
@@ -24547,13 +24555,13 @@
         <v>-42.775193999999999</v>
       </c>
       <c r="R405" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S405" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T405" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="406" spans="1:20" x14ac:dyDescent="0.25">
@@ -24606,13 +24614,13 @@
         <v>-42.836694000000001</v>
       </c>
       <c r="R406" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S406" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T406" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="407" spans="1:20" x14ac:dyDescent="0.25">
@@ -24665,13 +24673,13 @@
         <v>-42.752777999999999</v>
       </c>
       <c r="R407" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S407" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T407" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="408" spans="1:20" x14ac:dyDescent="0.25">
@@ -24724,13 +24732,13 @@
         <v>-42.892192999999999</v>
       </c>
       <c r="R408" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S408" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T408" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="409" spans="1:20" x14ac:dyDescent="0.25">
@@ -24783,13 +24791,13 @@
         <v>-42.742333000000002</v>
       </c>
       <c r="R409" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S409" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T409" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="410" spans="1:20" x14ac:dyDescent="0.25">
@@ -24842,13 +24850,13 @@
         <v>-42.790638999999999</v>
       </c>
       <c r="R410" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S410" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T410" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="411" spans="1:20" x14ac:dyDescent="0.25">
@@ -24901,13 +24909,13 @@
         <v>-42.810305999999997</v>
       </c>
       <c r="R411" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S411" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T411" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="412" spans="1:20" x14ac:dyDescent="0.25">
@@ -24960,13 +24968,13 @@
         <v>-42.746943999999999</v>
       </c>
       <c r="R412" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S412" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T412" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="413" spans="1:20" x14ac:dyDescent="0.25">
@@ -25019,13 +25027,13 @@
         <v>-40.479999999999997</v>
       </c>
       <c r="R413" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S413" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T413" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="414" spans="1:20" x14ac:dyDescent="0.25">
@@ -25042,7 +25050,7 @@
         <v>0</v>
       </c>
       <c r="E414" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F414" s="18">
         <v>0</v>
@@ -25078,13 +25086,13 @@
         <v>-40.498472</v>
       </c>
       <c r="R414" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S414" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T414" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="415" spans="1:20" x14ac:dyDescent="0.25">
@@ -25137,13 +25145,13 @@
         <v>-39.31</v>
       </c>
       <c r="R415" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S415" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T415" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="416" spans="1:20" x14ac:dyDescent="0.25">
@@ -25196,13 +25204,13 @@
         <v>-40.506667</v>
       </c>
       <c r="R416" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S416" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T416" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="417" spans="1:20" x14ac:dyDescent="0.25">
@@ -25219,7 +25227,7 @@
         <v>0</v>
       </c>
       <c r="E417" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F417" s="18">
         <v>0</v>
@@ -25255,13 +25263,13 @@
         <v>-40.497722000000003</v>
       </c>
       <c r="R417" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S417" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T417" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="418" spans="1:20" x14ac:dyDescent="0.25">
@@ -25314,13 +25322,13 @@
         <v>-42.780360999999999</v>
       </c>
       <c r="R418" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S418" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T418" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="419" spans="1:20" x14ac:dyDescent="0.25">
@@ -25373,13 +25381,13 @@
         <v>-37.970641999999998</v>
       </c>
       <c r="R419" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S419" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T419" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="420" spans="1:20" x14ac:dyDescent="0.25">
@@ -25432,13 +25440,13 @@
         <v>-42.789166999999999</v>
       </c>
       <c r="R420" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S420" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T420" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="421" spans="1:20" x14ac:dyDescent="0.25">
@@ -25491,13 +25499,13 @@
         <v>-40.350189</v>
       </c>
       <c r="R421" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S421" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T421" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="422" spans="1:20" x14ac:dyDescent="0.25">
@@ -25550,13 +25558,13 @@
         <v>-41.777777999999998</v>
       </c>
       <c r="R422" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S422" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T422" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="423" spans="1:20" x14ac:dyDescent="0.25">
@@ -25609,13 +25617,13 @@
         <v>-40.360833</v>
       </c>
       <c r="R423" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S423" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T423" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="424" spans="1:20" x14ac:dyDescent="0.25">
@@ -25668,13 +25676,13 @@
         <v>-42.738028</v>
       </c>
       <c r="R424" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S424" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T424" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="425" spans="1:20" x14ac:dyDescent="0.25">
@@ -25727,13 +25735,13 @@
         <v>-42.760027999999998</v>
       </c>
       <c r="R425" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S425" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T425" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="426" spans="1:20" x14ac:dyDescent="0.25">
@@ -25786,13 +25794,13 @@
         <v>-42.803100000000001</v>
       </c>
       <c r="R426" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S426" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T426" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="427" spans="1:20" x14ac:dyDescent="0.25">
@@ -25845,13 +25853,13 @@
         <v>-42.800193999999998</v>
       </c>
       <c r="R427" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S427" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T427" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="428" spans="1:20" x14ac:dyDescent="0.25">
@@ -25904,13 +25912,13 @@
         <v>-36.653193999999999</v>
       </c>
       <c r="R428" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S428" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T428" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="429" spans="1:20" x14ac:dyDescent="0.25">
@@ -25963,13 +25971,13 @@
         <v>-35.735278000000001</v>
       </c>
       <c r="R429" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S429" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T429" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="430" spans="1:20" x14ac:dyDescent="0.25">
@@ -26022,13 +26030,13 @@
         <v>-35.778472000000001</v>
       </c>
       <c r="R430" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S430" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T430" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="431" spans="1:20" x14ac:dyDescent="0.25">
@@ -26081,13 +26089,13 @@
         <v>-35.283360999999999</v>
       </c>
       <c r="R431" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S431" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T431" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="432" spans="1:20" x14ac:dyDescent="0.25">
@@ -26140,13 +26148,13 @@
         <v>-35.709761</v>
       </c>
       <c r="R432" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S432" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T432" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="433" spans="1:20" x14ac:dyDescent="0.25">
@@ -26199,13 +26207,13 @@
         <v>-35.713056000000002</v>
       </c>
       <c r="R433" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S433" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T433" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="434" spans="1:20" x14ac:dyDescent="0.25">
@@ -26222,7 +26230,7 @@
         <v>0</v>
       </c>
       <c r="E434" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F434" s="18">
         <v>0</v>
@@ -26258,13 +26266,13 @@
         <v>-35.704999999999998</v>
       </c>
       <c r="R434" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S434" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T434" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="435" spans="1:20" x14ac:dyDescent="0.25">
@@ -26317,13 +26325,13 @@
         <v>-35.363056</v>
       </c>
       <c r="R435" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S435" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T435" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="436" spans="1:20" x14ac:dyDescent="0.25">
@@ -26376,13 +26384,13 @@
         <v>-35.709305999999998</v>
       </c>
       <c r="R436" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S436" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T436" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="437" spans="1:20" x14ac:dyDescent="0.25">
@@ -26435,13 +26443,13 @@
         <v>-35.937387999999999</v>
       </c>
       <c r="R437" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S437" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T437" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="438" spans="1:20" x14ac:dyDescent="0.25">
@@ -26494,13 +26502,13 @@
         <v>-35.715944</v>
       </c>
       <c r="R438" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S438" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T438" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="439" spans="1:20" x14ac:dyDescent="0.25">
@@ -26553,13 +26561,13 @@
         <v>-34.944000000000003</v>
       </c>
       <c r="R439" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S439" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T439" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="440" spans="1:20" x14ac:dyDescent="0.25">
@@ -26612,13 +26620,13 @@
         <v>-34.890278000000002</v>
       </c>
       <c r="R440" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S440" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T440" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="441" spans="1:20" x14ac:dyDescent="0.25">
@@ -26671,13 +26679,13 @@
         <v>-35.725278000000003</v>
       </c>
       <c r="R441" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S441" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T441" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="442" spans="1:20" x14ac:dyDescent="0.25">
@@ -26730,13 +26738,13 @@
         <v>-35.722056000000002</v>
       </c>
       <c r="R442" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S442" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T442" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="443" spans="1:20" x14ac:dyDescent="0.25">
@@ -26753,7 +26761,7 @@
         <v>0</v>
       </c>
       <c r="E443" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F443" s="18">
         <v>0</v>
@@ -26789,13 +26797,13 @@
         <v>-35.524444000000003</v>
       </c>
       <c r="R443" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S443" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T443" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="444" spans="1:20" x14ac:dyDescent="0.25">
@@ -26848,13 +26856,13 @@
         <v>-35.721083</v>
       </c>
       <c r="R444" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S444" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T444" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="445" spans="1:20" x14ac:dyDescent="0.25">
@@ -26907,13 +26915,13 @@
         <v>-35.698194000000001</v>
       </c>
       <c r="R445" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S445" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T445" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="446" spans="1:20" x14ac:dyDescent="0.25">
@@ -26966,13 +26974,13 @@
         <v>-35.757806000000002</v>
       </c>
       <c r="R446" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S446" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T446" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="447" spans="1:20" x14ac:dyDescent="0.25">
@@ -26989,7 +26997,7 @@
         <v>0</v>
       </c>
       <c r="E447" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F447" s="18">
         <v>0</v>
@@ -27025,13 +27033,13 @@
         <v>-35.712203000000002</v>
       </c>
       <c r="R447" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S447" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T447" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="448" spans="1:20" x14ac:dyDescent="0.25">
@@ -27084,13 +27092,13 @@
         <v>-35.788499999999999</v>
       </c>
       <c r="R448" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S448" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T448" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="449" spans="1:20" x14ac:dyDescent="0.25">
@@ -27143,13 +27151,13 @@
         <v>-35.778610999999998</v>
       </c>
       <c r="R449" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S449" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T449" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="450" spans="1:20" x14ac:dyDescent="0.25">
@@ -27202,13 +27210,13 @@
         <v>-35.783278000000003</v>
       </c>
       <c r="R450" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S450" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T450" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="451" spans="1:20" x14ac:dyDescent="0.25">
@@ -27261,13 +27269,13 @@
         <v>-35.737721999999998</v>
       </c>
       <c r="R451" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S451" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T451" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="452" spans="1:20" x14ac:dyDescent="0.25">
@@ -27320,13 +27328,13 @@
         <v>-36.00967</v>
       </c>
       <c r="R452" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S452" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T452" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="453" spans="1:20" x14ac:dyDescent="0.25">
@@ -27343,7 +27351,7 @@
         <v>0</v>
       </c>
       <c r="E453" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F453" s="18">
         <v>0</v>
@@ -27379,13 +27387,13 @@
         <v>-35.751249999999999</v>
       </c>
       <c r="R453" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S453" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T453" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="454" spans="1:20" x14ac:dyDescent="0.25">
@@ -27438,13 +27446,13 @@
         <v>-36.665556000000002</v>
       </c>
       <c r="R454" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S454" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T454" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="455" spans="1:20" x14ac:dyDescent="0.25">
@@ -27497,13 +27505,13 @@
         <v>-35.739832999999997</v>
       </c>
       <c r="R455" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S455" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T455" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="456" spans="1:20" x14ac:dyDescent="0.25">
@@ -27556,13 +27564,13 @@
         <v>-35.757221999999999</v>
       </c>
       <c r="R456" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S456" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T456" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="457" spans="1:20" x14ac:dyDescent="0.25">
@@ -27615,13 +27623,13 @@
         <v>-35.806666999999997</v>
       </c>
       <c r="R457" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S457" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T457" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="458" spans="1:20" x14ac:dyDescent="0.25">
@@ -27674,13 +27682,13 @@
         <v>-34.905917000000002</v>
       </c>
       <c r="R458" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S458" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T458" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="459" spans="1:20" x14ac:dyDescent="0.25">
@@ -27733,13 +27741,13 @@
         <v>-35.738111000000004</v>
       </c>
       <c r="R459" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S459" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T459" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="460" spans="1:20" x14ac:dyDescent="0.25">
@@ -27792,13 +27800,13 @@
         <v>-35.733583000000003</v>
       </c>
       <c r="R460" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S460" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T460" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="461" spans="1:20" x14ac:dyDescent="0.25">
@@ -27851,13 +27859,13 @@
         <v>-36.030306000000003</v>
       </c>
       <c r="R461" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S461" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T461" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="462" spans="1:20" x14ac:dyDescent="0.25">
@@ -27910,13 +27918,13 @@
         <v>-35.993333</v>
       </c>
       <c r="R462" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S462" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T462" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="463" spans="1:20" x14ac:dyDescent="0.25">
@@ -27969,13 +27977,13 @@
         <v>-35.971972000000001</v>
       </c>
       <c r="R463" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S463" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T463" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="464" spans="1:20" x14ac:dyDescent="0.25">
@@ -28028,13 +28036,13 @@
         <v>-35.889167</v>
       </c>
       <c r="R464" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S464" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T464" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="465" spans="1:20" x14ac:dyDescent="0.25">
@@ -28087,13 +28095,13 @@
         <v>-35.729971999999997</v>
       </c>
       <c r="R465" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S465" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T465" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="466" spans="1:20" x14ac:dyDescent="0.25">
@@ -28146,13 +28154,13 @@
         <v>-35.774138999999998</v>
       </c>
       <c r="R466" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S466" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T466" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="467" spans="1:20" x14ac:dyDescent="0.25">
@@ -28205,13 +28213,13 @@
         <v>-35.760582999999997</v>
       </c>
       <c r="R467" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S467" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T467" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="468" spans="1:20" x14ac:dyDescent="0.25">
@@ -28264,13 +28272,13 @@
         <v>-35.982778000000003</v>
       </c>
       <c r="R468" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S468" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T468" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="469" spans="1:20" x14ac:dyDescent="0.25">
@@ -28287,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="E469" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F469" s="18">
         <v>0</v>
@@ -28323,13 +28331,13 @@
         <v>-35.094499999999996</v>
       </c>
       <c r="R469" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S469" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T469" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="470" spans="1:20" x14ac:dyDescent="0.25">
@@ -28382,13 +28390,13 @@
         <v>-35.759444000000002</v>
       </c>
       <c r="R470" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S470" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T470" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="471" spans="1:20" x14ac:dyDescent="0.25">
@@ -28405,7 +28413,7 @@
         <v>0</v>
       </c>
       <c r="E471" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F471" s="18">
         <v>0</v>
@@ -28441,13 +28449,13 @@
         <v>-37.997500000000002</v>
       </c>
       <c r="R471" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S471" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T471" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="472" spans="1:20" x14ac:dyDescent="0.25">
@@ -28500,13 +28508,13 @@
         <v>-35.717360999999997</v>
       </c>
       <c r="R472" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S472" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T472" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="473" spans="1:20" x14ac:dyDescent="0.25">
@@ -28559,13 +28567,13 @@
         <v>-35.709656000000003</v>
       </c>
       <c r="R473" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S473" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T473" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="474" spans="1:20" x14ac:dyDescent="0.25">
@@ -28618,13 +28626,13 @@
         <v>-35.719805999999998</v>
       </c>
       <c r="R474" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S474" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T474" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="475" spans="1:20" x14ac:dyDescent="0.25">
@@ -28677,13 +28685,13 @@
         <v>-35.786110999999998</v>
       </c>
       <c r="R475" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S475" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T475" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="476" spans="1:20" x14ac:dyDescent="0.25">
@@ -28736,13 +28744,13 @@
         <v>-35.797249999999998</v>
       </c>
       <c r="R476" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S476" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T476" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
